--- a/PythonResources/Data/Consumption/Sympheny/base_CC_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_CC_hea.xlsx
@@ -367,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>81.03824518440324</v>
+        <v>81.03824518440322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>63.13453543258165</v>
+        <v>63.13453543258164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -503,7 +503,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>68.34856228140565</v>
+        <v>68.34856228140563</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>209.5460857139006</v>
+        <v>209.5460857139005</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>82.06686591589683</v>
+        <v>82.06686591589681</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>85.13593513986231</v>
+        <v>85.13593513986228</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>74.26484595306995</v>
+        <v>74.26484595306994</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.016115976415988</v>
+        <v>5.016115976415987</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>39.63287577128971</v>
+        <v>39.6328757712897</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>62.60378378156596</v>
+        <v>62.60378378156595</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>63.37192297389734</v>
+        <v>63.37192297389733</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>50.34767017316396</v>
+        <v>50.34767017316395</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>85.95216728963801</v>
+        <v>85.952167289638</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>65.94663996984886</v>
+        <v>65.94663996984885</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>91.32899510043839</v>
+        <v>91.32899510043836</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>92.58691461258061</v>
+        <v>92.5869146125806</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>95.82854406410989</v>
+        <v>95.82854406410988</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>101.9416542453392</v>
+        <v>101.9416542453391</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>90.49693711457496</v>
+        <v>90.49693711457495</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>99.37880662645343</v>
+        <v>99.37880662645341</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>123.589229287644</v>
+        <v>123.5892292876439</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>103.6522805909016</v>
+        <v>103.6522805909015</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>96.50647599074131</v>
+        <v>96.50647599074129</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>91.83890940060526</v>
+        <v>91.83890940060525</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>91.3791688622572</v>
+        <v>91.37916886225719</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>52.47290411712057</v>
+        <v>52.47290411712056</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>49.49207858289603</v>
+        <v>49.49207858289602</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>63.53821148123379</v>
+        <v>63.53821148123378</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>86.95405994240569</v>
+        <v>86.95405994240568</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>73.39671092234732</v>
+        <v>73.39671092234731</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>64.02961248388843</v>
+        <v>64.02961248388841</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>60.10995439228497</v>
+        <v>60.10995439228496</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>79.40950288704281</v>
+        <v>79.40950288704279</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>81.21449810705417</v>
+        <v>81.21449810705415</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>74.67781235364767</v>
+        <v>74.67781235364765</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>56.83438731447871</v>
+        <v>56.8343873144787</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>21.21989647558631</v>
+        <v>21.2198964755863</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>75.32189457531371</v>
+        <v>75.32189457531368</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>54.64543972671712</v>
+        <v>54.64543972671711</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>53.44355539716695</v>
+        <v>53.44355539716694</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>53.20675399792858</v>
+        <v>53.20675399792857</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>52.21324317686662</v>
+        <v>52.21324317686661</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>58.85188834462341</v>
+        <v>58.8518883446234</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>59.49837374880647</v>
+        <v>59.49837374880646</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>98.09357289350797</v>
+        <v>98.09357289350794</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>78.17025200006331</v>
+        <v>78.1702520000633</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>61.98569696102918</v>
+        <v>61.98569696102917</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>110.5631008322632</v>
+        <v>110.5631008322631</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>89.42001827590998</v>
+        <v>89.42001827590997</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>164.3656682517903</v>
+        <v>164.3656682517902</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>92.86319268072666</v>
+        <v>92.86319268072664</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>93.45100526296973</v>
+        <v>93.45100526296972</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4503,7 +4503,7 @@
         <v>520</v>
       </c>
       <c r="B520">
-        <v>159.8936972728568</v>
+        <v>159.8936972728567</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>171.5494255514572</v>
+        <v>171.5494255514571</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -5223,7 +5223,7 @@
         <v>610</v>
       </c>
       <c r="B610">
-        <v>135.8932013966594</v>
+        <v>135.8932013966593</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>73.94991181492448</v>
+        <v>73.94991181492446</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>114.2449229838618</v>
+        <v>114.2449229838617</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>9.73795932291212</v>
+        <v>9.737959322912118</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>131.2832232656203</v>
+        <v>131.2832232656202</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>134.5673187106516</v>
+        <v>134.5673187106515</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>229.3011252169459</v>
+        <v>229.3011252169458</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>75.03146117600031</v>
+        <v>75.03146117600029</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>231.0882724107028</v>
+        <v>231.0882724107027</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>89.28488321998324</v>
+        <v>89.28488321998321</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>216.627268150036</v>
+        <v>216.6272681500359</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>151.4673187692658</v>
+        <v>151.4673187692657</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>152.5894877763001</v>
+        <v>152.5894877763</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>170.016077877181</v>
+        <v>170.0160778771809</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>197.6054923857214</v>
+        <v>197.6054923857213</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>839</v>
       </c>
       <c r="B839">
-        <v>208.2533493623654</v>
+        <v>208.2533493623653</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7319,7 +7319,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>251.0795271709091</v>
+        <v>251.079527170909</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7351,7 +7351,7 @@
         <v>876</v>
       </c>
       <c r="B876">
-        <v>131.8845757298495</v>
+        <v>131.8845757298494</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>94.40603585665545</v>
+        <v>94.40603585665544</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>93.20749253694601</v>
+        <v>93.20749253694599</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>54.7274996175423</v>
+        <v>54.72749961754229</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>70.04687964334428</v>
+        <v>70.04687964334427</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>86.9646104997975</v>
+        <v>86.96461049979749</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>75.78606048634555</v>
+        <v>75.78606048634552</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8071,7 +8071,7 @@
         <v>966</v>
       </c>
       <c r="B966">
-        <v>89.32139987140044</v>
+        <v>89.32139987140043</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>70.90783443361971</v>
+        <v>70.9078344336197</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>84.76414522021652</v>
+        <v>84.76414522021651</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>83.02898882871816</v>
+        <v>83.02898882871814</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>82.45577118420043</v>
+        <v>82.45577118420042</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>82.00895507865735</v>
+        <v>82.00895507865734</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>995</v>
       </c>
       <c r="B995">
-        <v>70.53062269975869</v>
+        <v>70.53062269975868</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>68.33030395569705</v>
+        <v>68.33030395569703</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>55.46296138906295</v>
+        <v>55.46296138906294</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>1006</v>
       </c>
       <c r="B1006">
-        <v>97.17878095343043</v>
+        <v>97.17878095343042</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>222.2386993272848</v>
+        <v>222.2386993272847</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>112.2189522006998</v>
+        <v>112.2189522006997</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>1030</v>
       </c>
       <c r="B1030">
-        <v>93.24277829000084</v>
+        <v>93.24277829000081</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>118.1218425258973</v>
+        <v>118.1218425258972</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>145.5809869577527</v>
+        <v>145.5809869577526</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>84.05910422250892</v>
+        <v>84.05910422250891</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>90.37487302697251</v>
+        <v>90.37487302697249</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>81.59253043982343</v>
+        <v>81.59253043982342</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>75.6963514414113</v>
+        <v>75.69635144141128</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>63.68706226176989</v>
+        <v>63.68706226176988</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>68.91849753029037</v>
+        <v>68.91849753029035</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>89.24769250517711</v>
+        <v>89.2476925051771</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>88.10553605330611</v>
+        <v>88.1055360533061</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>124.2573140273764</v>
+        <v>124.2573140273763</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>88.29392211695763</v>
+        <v>88.29392211695762</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9431,7 +9431,7 @@
         <v>1136</v>
       </c>
       <c r="B1136">
-        <v>159.5754221248706</v>
+        <v>159.5754221248705</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>130.7756828408666</v>
+        <v>130.7756828408665</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>131.7303031350982</v>
+        <v>131.7303031350981</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>1157</v>
       </c>
       <c r="B1157">
-        <v>155.7443975074895</v>
+        <v>155.7443975074894</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -9743,7 +9743,7 @@
         <v>1175</v>
       </c>
       <c r="B1175">
-        <v>145.1150626204889</v>
+        <v>145.1150626204888</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>97.86872879264698</v>
+        <v>97.86872879264696</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9855,7 +9855,7 @@
         <v>1189</v>
       </c>
       <c r="B1189">
-        <v>77.90472963903613</v>
+        <v>77.90472963903612</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>120.8674785515961</v>
+        <v>120.867478551596</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>49.59866851965716</v>
+        <v>49.59866851965715</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>67.16599133330325</v>
+        <v>67.16599133330324</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>7.568823337364038</v>
+        <v>7.568823337364037</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>60.36463312488168</v>
+        <v>60.36463312488167</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>96.63114841058784</v>
+        <v>96.63114841058783</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>88.79410645864094</v>
+        <v>88.79410645864093</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10615,7 +10615,7 @@
         <v>1284</v>
       </c>
       <c r="B1284">
-        <v>84.94409083795459</v>
+        <v>84.94409083795458</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>80.40403945674009</v>
+        <v>80.40403945674007</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>64.27097699919875</v>
+        <v>64.27097699919874</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>77.2476643703574</v>
+        <v>77.24766437035738</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>47.64520351145996</v>
+        <v>47.64520351145995</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>67.17249751036154</v>
+        <v>67.17249751036152</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>88.48348046476379</v>
+        <v>88.48348046476377</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>88.77898399304603</v>
+        <v>88.77898399304601</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>74.69516215913642</v>
+        <v>74.6951621591364</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>89.57836455809871</v>
+        <v>89.5783645580987</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>66.02622927181812</v>
+        <v>66.02622927181811</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>1372</v>
       </c>
       <c r="B1372">
-        <v>71.42311193379409</v>
+        <v>71.42311193379408</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
@@ -11343,7 +11343,7 @@
         <v>1375</v>
       </c>
       <c r="B1375">
-        <v>89.78729490156039</v>
+        <v>89.78729490156037</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>45.79029829356458</v>
+        <v>45.79029829356457</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>42.18786908633932</v>
+        <v>42.18786908633931</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>60.29145328652794</v>
+        <v>60.29145328652793</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>58.66373673780283</v>
+        <v>58.66373673780282</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>44.44246458676105</v>
+        <v>44.44246458676104</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>97.492601421629</v>
+        <v>97.49260142162899</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>98.67643257519764</v>
+        <v>98.67643257519762</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>88.97663110151923</v>
+        <v>88.97663110151922</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>94.02630371186194</v>
+        <v>94.02630371186193</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>96.11162138035287</v>
+        <v>96.11162138035286</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>86.18876353914932</v>
+        <v>86.18876353914931</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>85.65812911654909</v>
+        <v>85.65812911654908</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1482</v>
       </c>
       <c r="B1482">
-        <v>92.13036854855396</v>
+        <v>92.13036854855395</v>
       </c>
     </row>
     <row r="1483" spans="1:2">
@@ -12287,7 +12287,7 @@
         <v>1493</v>
       </c>
       <c r="B1493">
-        <v>171.5160154530498</v>
+        <v>171.5160154530497</v>
       </c>
     </row>
     <row r="1494" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>139.7684504337745</v>
+        <v>139.7684504337744</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>99.87456559545295</v>
+        <v>99.87456559545294</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>77.03902709793439</v>
+        <v>77.03902709793438</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>99.3873936078862</v>
+        <v>99.38739360788618</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>91.3631671835463</v>
+        <v>91.36316718354628</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12775,7 +12775,7 @@
         <v>1554</v>
       </c>
       <c r="B1554">
-        <v>68.0683863684454</v>
+        <v>68.06838636844539</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -12799,7 +12799,7 @@
         <v>1557</v>
       </c>
       <c r="B1557">
-        <v>24.02574101546771</v>
+        <v>24.0257410154677</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>71.56800625530826</v>
+        <v>71.56800625530825</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>158.0142327019216</v>
+        <v>158.0142327019215</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12911,7 +12911,7 @@
         <v>1571</v>
       </c>
       <c r="B1571">
-        <v>61.47477449648931</v>
+        <v>61.4747744964893</v>
       </c>
     </row>
     <row r="1572" spans="1:2">
@@ -12943,7 +12943,7 @@
         <v>1575</v>
       </c>
       <c r="B1575">
-        <v>32.07369447109763</v>
+        <v>32.07369447109762</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>31.6220720005205</v>
+        <v>31.62207200052049</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>7.463669448692347</v>
+        <v>7.463669448692346</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>30.49990299348621</v>
+        <v>30.4999029934862</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>39.94089343292279</v>
+        <v>39.94089343292278</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>44.53419582186205</v>
+        <v>44.53419582186204</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>94.66135934553721</v>
+        <v>94.66135934553719</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>91.70749634686952</v>
+        <v>91.7074963468695</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>114.8275189016167</v>
+        <v>114.8275189016166</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>175.8889284209157</v>
+        <v>175.8889284209156</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>38.42442665047352</v>
+        <v>38.42442665047351</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>89.98098555101166</v>
+        <v>89.98098555101164</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>73.56689727449796</v>
+        <v>73.56689727449795</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>121.4726409393279</v>
+        <v>121.4726409393278</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>80.13001803559173</v>
+        <v>80.13001803559172</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13759,7 +13759,7 @@
         <v>1677</v>
       </c>
       <c r="B1677">
-        <v>99.73702735700918</v>
+        <v>99.73702735700917</v>
       </c>
     </row>
     <row r="1678" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>174.3998637805813</v>
+        <v>174.3998637805812</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>114.2931331697216</v>
+        <v>114.2931331697215</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>85.7143694488682</v>
+        <v>85.71436944886818</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>58.51547209934405</v>
+        <v>58.51547209934404</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>93.50985392753292</v>
+        <v>93.5098539275329</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>58.7352460712362</v>
+        <v>58.73524607123619</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>63.02941085101383</v>
+        <v>63.02941085101382</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>68.57569233636819</v>
+        <v>68.57569233636818</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14527,7 +14527,7 @@
         <v>1773</v>
       </c>
       <c r="B1773">
-        <v>40.82854699482027</v>
+        <v>40.82854699482026</v>
       </c>
     </row>
     <row r="1774" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>76.95942900383396</v>
+        <v>76.95942900383395</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>59.00876927161883</v>
+        <v>59.00876927161882</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>76.70436927888699</v>
+        <v>76.70436927888697</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -15063,7 +15063,7 @@
         <v>1840</v>
       </c>
       <c r="B1840">
-        <v>42.50647540459923</v>
+        <v>42.50647540459922</v>
       </c>
     </row>
     <row r="1841" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>77.88512318654969</v>
+        <v>77.88512318654968</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15095,7 +15095,7 @@
         <v>1844</v>
       </c>
       <c r="B1844">
-        <v>83.50616709386657</v>
+        <v>83.50616709386655</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>96.7957077987962</v>
+        <v>96.79570779879617</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>97.7924717083873</v>
+        <v>97.79247170838728</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15135,7 +15135,7 @@
         <v>1849</v>
       </c>
       <c r="B1849">
-        <v>99.98719279561051</v>
+        <v>99.9871927956105</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>63.85962248933369</v>
+        <v>63.85962248933367</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>68.31242662233871</v>
+        <v>68.31242662233869</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>74.55363815456685</v>
+        <v>74.55363815456684</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>75.04886959569679</v>
+        <v>75.04886959569677</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>88.57749765396635</v>
+        <v>88.57749765396633</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>49.75689757343042</v>
+        <v>49.75689757343041</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>76.65829851160944</v>
+        <v>76.65829851160942</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>80.73743707032123</v>
+        <v>80.73743707032122</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>85.8120793331579</v>
+        <v>85.81207933315787</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16111,7 +16111,7 @@
         <v>1971</v>
       </c>
       <c r="B1971">
-        <v>88.48192718825888</v>
+        <v>88.48192718825887</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>76.98053011861758</v>
+        <v>76.98053011861757</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>97.60903854528915</v>
+        <v>97.60903854528914</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>93.6632180020644</v>
+        <v>93.66321800206438</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>69.21531987824658</v>
+        <v>69.21531987824656</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>83.45684323805986</v>
+        <v>83.45684323805985</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>66.9944275472709</v>
+        <v>66.99442754727089</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16879,7 +16879,7 @@
         <v>2067</v>
       </c>
       <c r="B2067">
-        <v>80.95832471216029</v>
+        <v>80.95832471216028</v>
       </c>
     </row>
     <row r="2068" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>80.93663745529935</v>
+        <v>80.93663745529933</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>80.13420895144459</v>
+        <v>80.13420895144458</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>68.58879261179635</v>
+        <v>68.58879261179634</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>71.69490601504862</v>
+        <v>71.6949060150486</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>58.47236134955697</v>
+        <v>58.47236134955696</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>70.11736322814234</v>
+        <v>70.11736322814232</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>60.29554748893804</v>
+        <v>60.29554748893803</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>27.31067464366958</v>
+        <v>27.31067464366957</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17455,7 +17455,7 @@
         <v>2139</v>
       </c>
       <c r="B2139">
-        <v>69.48040263271577</v>
+        <v>69.48040263271575</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -17463,7 +17463,7 @@
         <v>2140</v>
       </c>
       <c r="B2140">
-        <v>73.59122217070686</v>
+        <v>73.59122217070684</v>
       </c>
     </row>
     <row r="2141" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>77.83043613073548</v>
+        <v>77.83043613073546</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>75.80581347435131</v>
+        <v>75.8058134743513</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>85.12075406005964</v>
+        <v>85.12075406005962</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17639,7 +17639,7 @@
         <v>2162</v>
       </c>
       <c r="B2162">
-        <v>96.32295490633157</v>
+        <v>96.32295490633156</v>
       </c>
     </row>
     <row r="2163" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>90.46689733311217</v>
+        <v>90.46689733311216</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>86.18580352165884</v>
+        <v>86.18580352165883</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>89.80402925786794</v>
+        <v>89.80402925786792</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>114.7118144555532</v>
+        <v>114.7118144555531</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>31.86180411014548</v>
+        <v>31.86180411014547</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>78.38781035490318</v>
+        <v>78.38781035490317</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>15.25469924756942</v>
+        <v>15.25469924756941</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>96.73425080198891</v>
+        <v>96.73425080198888</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>28.90357435300173</v>
+        <v>28.90357435300172</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>43.2280075096523</v>
+        <v>43.22800750965229</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>96.5713033044932</v>
+        <v>96.57130330449318</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18479,7 +18479,7 @@
         <v>2267</v>
       </c>
       <c r="B2267">
-        <v>61.1932328724889</v>
+        <v>61.19323287248889</v>
       </c>
     </row>
     <row r="2268" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>56.87043505223406</v>
+        <v>56.87043505223405</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18567,7 +18567,7 @@
         <v>2278</v>
       </c>
       <c r="B2278">
-        <v>24.39851565380339</v>
+        <v>24.39851565380338</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -18687,7 +18687,7 @@
         <v>2293</v>
       </c>
       <c r="B2293">
-        <v>47.47692212106062</v>
+        <v>47.47692212106061</v>
       </c>
     </row>
     <row r="2294" spans="1:2">
@@ -18695,7 +18695,7 @@
         <v>2294</v>
       </c>
       <c r="B2294">
-        <v>45.00047184437225</v>
+        <v>45.00047184437224</v>
       </c>
     </row>
     <row r="2295" spans="1:2">
@@ -18751,7 +18751,7 @@
         <v>2301</v>
       </c>
       <c r="B2301">
-        <v>11.94443255878566</v>
+        <v>11.94443255878565</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -18799,7 +18799,7 @@
         <v>2307</v>
       </c>
       <c r="B2307">
-        <v>37.95621635910816</v>
+        <v>37.95621635910815</v>
       </c>
     </row>
     <row r="2308" spans="1:2">
@@ -18863,7 +18863,7 @@
         <v>2315</v>
       </c>
       <c r="B2315">
-        <v>22.61406471360219</v>
+        <v>22.61406471360218</v>
       </c>
     </row>
     <row r="2316" spans="1:2">
@@ -18983,7 +18983,7 @@
         <v>2330</v>
       </c>
       <c r="B2330">
-        <v>69.75471712490278</v>
+        <v>69.75471712490277</v>
       </c>
     </row>
     <row r="2331" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>61.33411212077341</v>
+        <v>61.3341121207734</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19167,7 +19167,7 @@
         <v>2353</v>
       </c>
       <c r="B2353">
-        <v>85.03667197906771</v>
+        <v>85.03667197906769</v>
       </c>
     </row>
     <row r="2354" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>57.76459479118982</v>
+        <v>57.76459479118981</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19335,7 +19335,7 @@
         <v>2374</v>
       </c>
       <c r="B2374">
-        <v>71.09736347432201</v>
+        <v>71.09736347432199</v>
       </c>
     </row>
     <row r="2375" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>82.15944705700994</v>
+        <v>82.15944705700993</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>77.57549363420398</v>
+        <v>77.57549363420397</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>87.0103002747248</v>
+        <v>87.01030027472478</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>85.12066613874805</v>
+        <v>85.12066613874804</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>61.99806455886069</v>
+        <v>61.99806455886068</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19775,7 +19775,7 @@
         <v>2429</v>
       </c>
       <c r="B2429">
-        <v>76.54359050707738</v>
+        <v>76.54359050707737</v>
       </c>
     </row>
     <row r="2430" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>48.15215779413636</v>
+        <v>48.15215779413635</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>52.93156029262558</v>
+        <v>52.93156029262557</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -19911,7 +19911,7 @@
         <v>2446</v>
       </c>
       <c r="B2446">
-        <v>20.79491416242349</v>
+        <v>20.79491416242348</v>
       </c>
     </row>
     <row r="2447" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>85.3419933871451</v>
+        <v>85.34199338714508</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -19999,7 +19999,7 @@
         <v>2457</v>
       </c>
       <c r="B2457">
-        <v>58.2818651744271</v>
+        <v>58.28186517442709</v>
       </c>
     </row>
     <row r="2458" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>72.41556769911686</v>
+        <v>72.41556769911685</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>88.23530790922536</v>
+        <v>88.23530790922534</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>94.64075645151932</v>
+        <v>94.64075645151931</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>103.594399060766</v>
+        <v>103.5943990607659</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>92.31597043733819</v>
+        <v>92.31597043733818</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20471,7 +20471,7 @@
         <v>2516</v>
       </c>
       <c r="B2516">
-        <v>66.39202002730251</v>
+        <v>66.39202002730249</v>
       </c>
     </row>
     <row r="2517" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>87.25381300074852</v>
+        <v>87.25381300074849</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20631,7 +20631,7 @@
         <v>2536</v>
       </c>
       <c r="B2536">
-        <v>31.53297840476745</v>
+        <v>31.53297840476744</v>
       </c>
     </row>
     <row r="2537" spans="1:2">
@@ -20687,7 +20687,7 @@
         <v>2543</v>
       </c>
       <c r="B2543">
-        <v>32.74131029716818</v>
+        <v>32.74131029716817</v>
       </c>
     </row>
     <row r="2544" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>87.27974978767004</v>
+        <v>87.27974978767003</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>68.22347956210498</v>
+        <v>68.22347956210497</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>59.44289540118788</v>
+        <v>59.44289540118787</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>84.10778332203057</v>
+        <v>84.10778332203056</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -21079,7 +21079,7 @@
         <v>2592</v>
       </c>
       <c r="B2592">
-        <v>62.22425678649951</v>
+        <v>62.2242567864995</v>
       </c>
     </row>
     <row r="2593" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>43.1509005193805</v>
+        <v>43.15090051938049</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>62.82304487914044</v>
+        <v>62.82304487914043</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21383,7 +21383,7 @@
         <v>2630</v>
       </c>
       <c r="B2630">
-        <v>39.30639463422097</v>
+        <v>39.30639463422096</v>
       </c>
     </row>
     <row r="2631" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>43.09756159034414</v>
+        <v>43.09756159034413</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>34.49915038705893</v>
+        <v>34.49915038705892</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>66.21562056913224</v>
+        <v>66.21562056913223</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>56.7744249799686</v>
+        <v>56.77442497996859</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21623,7 +21623,7 @@
         <v>2660</v>
       </c>
       <c r="B2660">
-        <v>83.33958551549145</v>
+        <v>83.33958551549144</v>
       </c>
     </row>
     <row r="2661" spans="1:2">
@@ -21695,7 +21695,7 @@
         <v>2669</v>
       </c>
       <c r="B2669">
-        <v>95.21036932226151</v>
+        <v>95.2103693222615</v>
       </c>
     </row>
     <row r="2670" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>94.48706999884531</v>
+        <v>94.4870699988453</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21759,7 +21759,7 @@
         <v>2677</v>
       </c>
       <c r="B2677">
-        <v>47.63290625067774</v>
+        <v>47.63290625067773</v>
       </c>
     </row>
     <row r="2678" spans="1:2">
@@ -21775,7 +21775,7 @@
         <v>2679</v>
       </c>
       <c r="B2679">
-        <v>37.07729631416278</v>
+        <v>37.07729631416277</v>
       </c>
     </row>
     <row r="2680" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>36.38447637876736</v>
+        <v>36.38447637876735</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>84.0108354224414</v>
+        <v>84.01083542244137</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>81.13999944902646</v>
+        <v>81.13999944902645</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -21999,7 +21999,7 @@
         <v>2707</v>
       </c>
       <c r="B2707">
-        <v>17.20239075630499</v>
+        <v>17.20239075630498</v>
       </c>
     </row>
     <row r="2708" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>25.07756125038173</v>
+        <v>25.07756125038172</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>51.28801790781275</v>
+        <v>51.28801790781274</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>53.85216676211014</v>
+        <v>53.85216676211013</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>57.4922731820657</v>
+        <v>57.49227318206569</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>58.30873978867234</v>
+        <v>58.30873978867233</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>86.88419180678882</v>
+        <v>86.88419180678881</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>79.94295079161419</v>
+        <v>79.94295079161418</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>43.23597024977273</v>
+        <v>43.23597024977272</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>38.37677329958719</v>
+        <v>38.37677329958718</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>35.65062649795935</v>
+        <v>35.65062649795934</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23175,7 +23175,7 @@
         <v>2854</v>
       </c>
       <c r="B2854">
-        <v>67.99913368200973</v>
+        <v>67.99913368200971</v>
       </c>
     </row>
     <row r="2855" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>85.93314697922889</v>
+        <v>85.93314697922888</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23239,7 +23239,7 @@
         <v>2862</v>
       </c>
       <c r="B2862">
-        <v>99.3378939094563</v>
+        <v>99.33789390945628</v>
       </c>
     </row>
     <row r="2863" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>26.95878424754891</v>
+        <v>26.9587842475489</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>39.15370462307841</v>
+        <v>39.1537046230784</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>50.62069515278087</v>
+        <v>50.62069515278086</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>97.09121132707844</v>
+        <v>97.0912113270784</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>38.47583131065472</v>
+        <v>38.47583131065471</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>37.77040932059686</v>
+        <v>37.77040932059685</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23639,7 +23639,7 @@
         <v>2912</v>
       </c>
       <c r="B2912">
-        <v>89.54785586297406</v>
+        <v>89.54785586297405</v>
       </c>
     </row>
     <row r="2913" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>85.70364304885319</v>
+        <v>85.70364304885318</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>24.8661691101953</v>
+        <v>24.86616911019529</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -23927,7 +23927,7 @@
         <v>2948</v>
       </c>
       <c r="B2948">
-        <v>6.545448577462486</v>
+        <v>6.545448577462485</v>
       </c>
     </row>
     <row r="2949" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>37.44685889391474</v>
+        <v>37.44685889391473</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24175,7 +24175,7 @@
         <v>2979</v>
       </c>
       <c r="B2979">
-        <v>56.77313546739849</v>
+        <v>56.77313546739848</v>
       </c>
     </row>
     <row r="2980" spans="1:2">
@@ -24191,7 +24191,7 @@
         <v>2981</v>
       </c>
       <c r="B2981">
-        <v>60.41923225938429</v>
+        <v>60.41923225938428</v>
       </c>
     </row>
     <row r="2982" spans="1:2">
@@ -24311,7 +24311,7 @@
         <v>2996</v>
       </c>
       <c r="B2996">
-        <v>37.28361832538037</v>
+        <v>37.28361832538036</v>
       </c>
     </row>
     <row r="2997" spans="1:2">
@@ -24327,7 +24327,7 @@
         <v>2998</v>
       </c>
       <c r="B2998">
-        <v>52.8881857789037</v>
+        <v>52.88818577890369</v>
       </c>
     </row>
     <row r="2999" spans="1:2">
@@ -24551,7 +24551,7 @@
         <v>3026</v>
       </c>
       <c r="B3026">
-        <v>57.28307907466923</v>
+        <v>57.28307907466922</v>
       </c>
     </row>
     <row r="3027" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>35.22538042086174</v>
+        <v>35.22538042086173</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>23.84680942352341</v>
+        <v>23.8468094235234</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24967,7 +24967,7 @@
         <v>3078</v>
       </c>
       <c r="B3078">
-        <v>32.43036192514849</v>
+        <v>32.43036192514848</v>
       </c>
     </row>
     <row r="3079" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>65.1918941239843</v>
+        <v>65.19189412398428</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25031,7 +25031,7 @@
         <v>3086</v>
       </c>
       <c r="B3086">
-        <v>47.64016268959499</v>
+        <v>47.64016268959498</v>
       </c>
     </row>
     <row r="3087" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>0.9932910177829646</v>
+        <v>0.9932910177829644</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>19.68991911825476</v>
+        <v>19.68991911825475</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>57.35400226602528</v>
+        <v>57.35400226602527</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>25.4888278389352</v>
+        <v>25.48882783893519</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>47.43120303902945</v>
+        <v>47.43120303902944</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>31.40959549749103</v>
+        <v>31.40959549749102</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>30.49755842517692</v>
+        <v>30.49755842517691</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>38.66222449124334</v>
+        <v>38.66222449124333</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>47.41332570567111</v>
+        <v>47.4133257056711</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25887,7 +25887,7 @@
         <v>3193</v>
       </c>
       <c r="B3193">
-        <v>56.06536890903134</v>
+        <v>56.06536890903133</v>
       </c>
     </row>
     <row r="3194" spans="1:2">
@@ -25903,7 +25903,7 @@
         <v>3195</v>
       </c>
       <c r="B3195">
-        <v>61.39486574708791</v>
+        <v>61.3948657470879</v>
       </c>
     </row>
     <row r="3196" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>54.18209441459354</v>
+        <v>54.18209441459353</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -25999,7 +25999,7 @@
         <v>3207</v>
       </c>
       <c r="B3207">
-        <v>42.72067223462565</v>
+        <v>42.72067223462564</v>
       </c>
     </row>
     <row r="3208" spans="1:2">
@@ -26071,7 +26071,7 @@
         <v>3216</v>
       </c>
       <c r="B3216">
-        <v>42.40972386260596</v>
+        <v>42.40972386260595</v>
       </c>
     </row>
     <row r="3217" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>94.53123580437158</v>
+        <v>94.53123580437156</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>66.23376166642538</v>
+        <v>66.23376166642537</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>42.52644233446323</v>
+        <v>42.52644233446322</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>16.61123716422119</v>
+        <v>16.61123716422118</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26447,7 +26447,7 @@
         <v>3263</v>
       </c>
       <c r="B3263">
-        <v>8.874484121704198</v>
+        <v>8.874484121704196</v>
       </c>
     </row>
     <row r="3264" spans="1:2">
@@ -26631,7 +26631,7 @@
         <v>3286</v>
       </c>
       <c r="B3286">
-        <v>8.556648580275969</v>
+        <v>8.556648580275967</v>
       </c>
     </row>
     <row r="3287" spans="1:2">
@@ -26663,7 +26663,7 @@
         <v>3290</v>
       </c>
       <c r="B3290">
-        <v>22.31718375143825</v>
+        <v>22.31718375143824</v>
       </c>
     </row>
     <row r="3291" spans="1:2">
@@ -26695,7 +26695,7 @@
         <v>3294</v>
       </c>
       <c r="B3294">
-        <v>26.55883020108777</v>
+        <v>26.55883020108776</v>
       </c>
     </row>
     <row r="3295" spans="1:2">
@@ -26735,7 +26735,7 @@
         <v>3299</v>
       </c>
       <c r="B3299">
-        <v>69.93085281913825</v>
+        <v>69.93085281913824</v>
       </c>
     </row>
     <row r="3300" spans="1:2">
@@ -26871,7 +26871,7 @@
         <v>3316</v>
       </c>
       <c r="B3316">
-        <v>61.36936856672437</v>
+        <v>61.36936856672436</v>
       </c>
     </row>
     <row r="3317" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>84.22383945334046</v>
+        <v>84.22383945334045</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>87.32804789484143</v>
+        <v>87.32804789484142</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27127,7 +27127,7 @@
         <v>3348</v>
       </c>
       <c r="B3348">
-        <v>41.35759883381173</v>
+        <v>41.35759883381172</v>
       </c>
     </row>
     <row r="3349" spans="1:2">
@@ -27191,7 +27191,7 @@
         <v>3356</v>
       </c>
       <c r="B3356">
-        <v>62.56802911484927</v>
+        <v>62.56802911484926</v>
       </c>
     </row>
     <row r="3357" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>177.4386880733569</v>
+        <v>177.4386880733568</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>50.37891154588526</v>
+        <v>50.37891154588525</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27415,7 +27415,7 @@
         <v>3384</v>
       </c>
       <c r="B3384">
-        <v>56.6165769185456</v>
+        <v>56.61657691854559</v>
       </c>
     </row>
     <row r="3385" spans="1:2">
@@ -27439,7 +27439,7 @@
         <v>3387</v>
       </c>
       <c r="B3387">
-        <v>74.63575665959975</v>
+        <v>74.63575665959974</v>
       </c>
     </row>
     <row r="3388" spans="1:2">
@@ -27599,7 +27599,7 @@
         <v>3407</v>
       </c>
       <c r="B3407">
-        <v>30.35219519000089</v>
+        <v>30.35219519000088</v>
       </c>
     </row>
     <row r="3408" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>53.09187015077333</v>
+        <v>53.09187015077332</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -27687,7 +27687,7 @@
         <v>3418</v>
       </c>
       <c r="B3418">
-        <v>48.76614162013188</v>
+        <v>48.76614162013187</v>
       </c>
     </row>
     <row r="3419" spans="1:2">
@@ -27703,7 +27703,7 @@
         <v>3420</v>
       </c>
       <c r="B3420">
-        <v>36.35634155905587</v>
+        <v>36.35634155905586</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -27831,7 +27831,7 @@
         <v>3436</v>
       </c>
       <c r="B3436">
-        <v>44.77627249979632</v>
+        <v>44.77627249979631</v>
       </c>
     </row>
     <row r="3437" spans="1:2">
@@ -27871,7 +27871,7 @@
         <v>3441</v>
       </c>
       <c r="B3441">
-        <v>48.39423447207063</v>
+        <v>48.39423447207062</v>
       </c>
     </row>
     <row r="3442" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>36.07851021440492</v>
+        <v>36.07851021440491</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -28039,7 +28039,7 @@
         <v>3462</v>
       </c>
       <c r="B3462">
-        <v>14.64930240300668</v>
+        <v>14.64930240300667</v>
       </c>
     </row>
     <row r="3463" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>32.14754837284029</v>
+        <v>32.14754837284028</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>13.75153789027538</v>
+        <v>13.75153789027537</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>12.06755170212729</v>
+        <v>12.06755170212728</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28359,7 +28359,7 @@
         <v>3502</v>
       </c>
       <c r="B3502">
-        <v>34.77668866067122</v>
+        <v>34.77668866067121</v>
       </c>
     </row>
     <row r="3503" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>38.18569098237999</v>
+        <v>38.18569098237998</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>43.72414747100209</v>
+        <v>43.72414747100208</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28423,7 +28423,7 @@
         <v>3510</v>
       </c>
       <c r="B3510">
-        <v>50.14416164391752</v>
+        <v>50.14416164391751</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>16.72732260263495</v>
+        <v>16.72732260263494</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28559,7 +28559,7 @@
         <v>3527</v>
       </c>
       <c r="B3527">
-        <v>43.85427101216773</v>
+        <v>43.85427101216772</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>48.57476623188602</v>
+        <v>48.57476623188601</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>17.1119490337741</v>
+        <v>17.11194903377409</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28719,7 +28719,7 @@
         <v>3547</v>
       </c>
       <c r="B3547">
-        <v>23.20879377235766</v>
+        <v>23.20879377235765</v>
       </c>
     </row>
     <row r="3548" spans="1:2">
@@ -28951,7 +28951,7 @@
         <v>3576</v>
       </c>
       <c r="B3576">
-        <v>18.501516056483</v>
+        <v>18.50151605648299</v>
       </c>
     </row>
     <row r="3577" spans="1:2">
@@ -29023,7 +29023,7 @@
         <v>3585</v>
       </c>
       <c r="B3585">
-        <v>47.12787451401496</v>
+        <v>47.12787451401495</v>
       </c>
     </row>
     <row r="3586" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>15.87557024297348</v>
+        <v>15.87557024297347</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29135,7 +29135,7 @@
         <v>3599</v>
       </c>
       <c r="B3599">
-        <v>7.410945968837171</v>
+        <v>7.41094596883717</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -29335,7 +29335,7 @@
         <v>3624</v>
       </c>
       <c r="B3624">
-        <v>3.584141574412789</v>
+        <v>3.584141574412788</v>
       </c>
     </row>
     <row r="3625" spans="1:2">
@@ -29455,7 +29455,7 @@
         <v>3639</v>
       </c>
       <c r="B3639">
-        <v>8.566730224005919</v>
+        <v>8.566730224005918</v>
       </c>
     </row>
     <row r="3640" spans="1:2">
@@ -29527,7 +29527,7 @@
         <v>3648</v>
       </c>
       <c r="B3648">
-        <v>8.848899020029062</v>
+        <v>8.84889902002906</v>
       </c>
     </row>
     <row r="3649" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>15.49566225555678</v>
+        <v>15.49566225555677</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>48.82710039617344</v>
+        <v>48.82710039617343</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29743,7 +29743,7 @@
         <v>3675</v>
       </c>
       <c r="B3675">
-        <v>59.86884484877828</v>
+        <v>59.86884484877827</v>
       </c>
     </row>
     <row r="3676" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>64.60370054939098</v>
+        <v>64.60370054939096</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>32.20381801226327</v>
+        <v>32.20381801226326</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>19.70307800789065</v>
+        <v>19.70307800789064</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29919,7 +29919,7 @@
         <v>3697</v>
       </c>
       <c r="B3697">
-        <v>59.94738788713952</v>
+        <v>59.94738788713951</v>
       </c>
     </row>
     <row r="3698" spans="1:2">
@@ -29943,7 +29943,7 @@
         <v>3700</v>
       </c>
       <c r="B3700">
-        <v>63.72302207821363</v>
+        <v>63.72302207821362</v>
       </c>
     </row>
     <row r="3701" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>52.55672243417772</v>
+        <v>52.55672243417771</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -30327,7 +30327,7 @@
         <v>3748</v>
       </c>
       <c r="B3748">
-        <v>23.05921031422491</v>
+        <v>23.0592103142249</v>
       </c>
     </row>
     <row r="3749" spans="1:2">
@@ -30431,7 +30431,7 @@
         <v>3761</v>
       </c>
       <c r="B3761">
-        <v>19.66650274226571</v>
+        <v>19.6665027422657</v>
       </c>
     </row>
     <row r="3762" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>63.17556537799424</v>
+        <v>63.17556537799423</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30863,7 +30863,7 @@
         <v>3815</v>
       </c>
       <c r="B3815">
-        <v>9.325930749658134</v>
+        <v>9.325930749658133</v>
       </c>
     </row>
     <row r="3816" spans="1:2">
@@ -30879,7 +30879,7 @@
         <v>3817</v>
       </c>
       <c r="B3817">
-        <v>22.18943408568577</v>
+        <v>22.18943408568576</v>
       </c>
     </row>
     <row r="3818" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>13.96656411134121</v>
+        <v>13.9665641113412</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31071,7 +31071,7 @@
         <v>3841</v>
       </c>
       <c r="B3841">
-        <v>55.74680069000646</v>
+        <v>55.74680069000645</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>57.9861564964178</v>
+        <v>57.98615649641779</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>45.94064373639785</v>
+        <v>45.94064373639784</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>25.57203070681115</v>
+        <v>25.57203070681114</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>47.90480583750618</v>
+        <v>47.90480583750617</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31263,7 +31263,7 @@
         <v>3865</v>
       </c>
       <c r="B3865">
-        <v>51.96061594154054</v>
+        <v>51.96061594154053</v>
       </c>
     </row>
     <row r="3866" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>53.33658446805556</v>
+        <v>53.33658446805555</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>122.2161914715156</v>
+        <v>122.2161914715155</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>58.45712165554658</v>
+        <v>58.45712165554657</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31351,7 +31351,7 @@
         <v>3876</v>
       </c>
       <c r="B3876">
-        <v>55.90740361919288</v>
+        <v>55.90740361919287</v>
       </c>
     </row>
     <row r="3877" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>39.6223252138979</v>
+        <v>39.62232521389789</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>36.61131336269124</v>
+        <v>36.61131336269123</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>91.31097123156071</v>
+        <v>91.3109712315607</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>63.62660170649405</v>
+        <v>63.62660170649404</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31855,7 +31855,7 @@
         <v>3939</v>
       </c>
       <c r="B3939">
-        <v>9.635589609107711</v>
+        <v>9.63558960910771</v>
       </c>
     </row>
     <row r="3940" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>5.607152340084324</v>
+        <v>5.607152340084323</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32039,7 +32039,7 @@
         <v>3962</v>
       </c>
       <c r="B3962">
-        <v>3.589563388628024</v>
+        <v>3.589563388628023</v>
       </c>
     </row>
     <row r="3963" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>6.664494033366725</v>
+        <v>6.664494033366724</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>61.60851453427203</v>
+        <v>61.60851453427202</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32159,7 +32159,7 @@
         <v>3977</v>
       </c>
       <c r="B3977">
-        <v>7.365373422325332</v>
+        <v>7.365373422325331</v>
       </c>
     </row>
     <row r="3978" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>27.44944378047573</v>
+        <v>27.44944378047572</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>6.587416350198791</v>
+        <v>6.58741635019879</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>10.74272407185868</v>
+        <v>10.74272407185867</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>71.34433443860192</v>
+        <v>71.3443344386019</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33103,7 +33103,7 @@
         <v>4095</v>
       </c>
       <c r="B4095">
-        <v>7.796246463365242</v>
+        <v>7.796246463365241</v>
       </c>
     </row>
     <row r="4096" spans="1:2">
@@ -33183,7 +33183,7 @@
         <v>4105</v>
       </c>
       <c r="B4105">
-        <v>8.248425768915832</v>
+        <v>8.24842576891583</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>41.76760521689895</v>
+        <v>41.76760521689894</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>4.207239909710675</v>
+        <v>4.207239909710674</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>11.16237249211786</v>
+        <v>11.16237249211785</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33783,7 +33783,7 @@
         <v>4180</v>
       </c>
       <c r="B4180">
-        <v>37.82902352832913</v>
+        <v>37.82902352832912</v>
       </c>
     </row>
     <row r="4181" spans="1:2">
@@ -33815,7 +33815,7 @@
         <v>4184</v>
       </c>
       <c r="B4184">
-        <v>26.04044614790358</v>
+        <v>26.04044614790357</v>
       </c>
     </row>
     <row r="4185" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>28.76090737138139</v>
+        <v>28.76090737138138</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>66.695348552317</v>
+        <v>66.69534855231699</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34015,7 +34015,7 @@
         <v>4209</v>
       </c>
       <c r="B4209">
-        <v>43.31677872726282</v>
+        <v>43.31677872726281</v>
       </c>
     </row>
     <row r="4210" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>24.25593659349465</v>
+        <v>24.25593659349464</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34199,7 +34199,7 @@
         <v>4232</v>
       </c>
       <c r="B4232">
-        <v>64.67520988282435</v>
+        <v>64.67520988282433</v>
       </c>
     </row>
     <row r="4233" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>38.69768608692136</v>
+        <v>38.69768608692135</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>14.78555112888034</v>
+        <v>14.78555112888033</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>25.21058619483012</v>
+        <v>25.21058619483011</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>37.46209858792513</v>
+        <v>37.46209858792512</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34655,7 +34655,7 @@
         <v>4289</v>
       </c>
       <c r="B4289">
-        <v>14.29644487245842</v>
+        <v>14.29644487245841</v>
       </c>
     </row>
     <row r="4290" spans="1:2">
@@ -34727,7 +34727,7 @@
         <v>4298</v>
       </c>
       <c r="B4298">
-        <v>7.558360701283828</v>
+        <v>7.558360701283827</v>
       </c>
     </row>
     <row r="4299" spans="1:2">
@@ -34791,7 +34791,7 @@
         <v>4306</v>
       </c>
       <c r="B4306">
-        <v>27.71162513166217</v>
+        <v>27.71162513166216</v>
       </c>
     </row>
     <row r="4307" spans="1:2">
@@ -34887,7 +34887,7 @@
         <v>4318</v>
       </c>
       <c r="B4318">
-        <v>2.010754534834717</v>
+        <v>2.010754534834716</v>
       </c>
     </row>
     <row r="4319" spans="1:2">
@@ -35007,7 +35007,7 @@
         <v>4333</v>
       </c>
       <c r="B4333">
-        <v>11.62577641844918</v>
+        <v>11.62577641844917</v>
       </c>
     </row>
     <row r="4334" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>35.67114147066565</v>
+        <v>35.67114147066564</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>38.66720669890058</v>
+        <v>38.66720669890057</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35255,7 +35255,7 @@
         <v>4364</v>
       </c>
       <c r="B4364">
-        <v>23.13458818536861</v>
+        <v>23.1345881853686</v>
       </c>
     </row>
     <row r="4365" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>31.79410470021471</v>
+        <v>31.7941047002147</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35295,7 +35295,7 @@
         <v>4369</v>
       </c>
       <c r="B4369">
-        <v>35.59963213723228</v>
+        <v>35.59963213723227</v>
       </c>
     </row>
     <row r="4370" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>19.10178415786917</v>
+        <v>19.10178415786916</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35519,7 +35519,7 @@
         <v>4397</v>
       </c>
       <c r="B4397">
-        <v>18.19341047353833</v>
+        <v>18.19341047353832</v>
       </c>
     </row>
     <row r="4398" spans="1:2">
@@ -35535,7 +35535,7 @@
         <v>4399</v>
       </c>
       <c r="B4399">
-        <v>89.3087098954264</v>
+        <v>89.30870989542639</v>
       </c>
     </row>
     <row r="4400" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>21.18109387006755</v>
+        <v>21.18109387006754</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35671,7 +35671,7 @@
         <v>4416</v>
       </c>
       <c r="B4416">
-        <v>7.999051622118893</v>
+        <v>7.999051622118892</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>21.12608443611081</v>
+        <v>21.1260844361108</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35863,7 +35863,7 @@
         <v>4440</v>
       </c>
       <c r="B4440">
-        <v>38.6109370594776</v>
+        <v>38.61093705947759</v>
       </c>
     </row>
     <row r="4441" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>40.63635100766616</v>
+        <v>40.63635100766615</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>19.56882216507989</v>
+        <v>19.56882216507988</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>24.93448396930726</v>
+        <v>24.93448396930725</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>2.403838996149633</v>
+        <v>2.403838996149632</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>20.17920121729987</v>
+        <v>20.17920121729986</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36455,7 +36455,7 @@
         <v>4514</v>
       </c>
       <c r="B4514">
-        <v>29.56764401950447</v>
+        <v>29.56764401950446</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>36.21390903426646</v>
+        <v>36.21390903426645</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>17.26370121759294</v>
+        <v>17.26370121759293</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36887,7 +36887,7 @@
         <v>4568</v>
       </c>
       <c r="B4568">
-        <v>70.8297016947126</v>
+        <v>70.82970169471258</v>
       </c>
     </row>
     <row r="4569" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>12.10447865299862</v>
+        <v>12.10447865299861</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>22.44634015817631</v>
+        <v>22.4463401581763</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>13.81053309035791</v>
+        <v>13.8105330903579</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37431,7 +37431,7 @@
         <v>4636</v>
       </c>
       <c r="B4636">
-        <v>12.64270361550018</v>
+        <v>12.64270361550017</v>
       </c>
     </row>
     <row r="4637" spans="1:2">
@@ -37463,7 +37463,7 @@
         <v>4640</v>
       </c>
       <c r="B4640">
-        <v>63.78720463568047</v>
+        <v>63.78720463568046</v>
       </c>
     </row>
     <row r="4641" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>29.10857754454534</v>
+        <v>29.10857754454533</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>24.13850302830305</v>
+        <v>24.13850302830304</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37655,7 +37655,7 @@
         <v>4664</v>
       </c>
       <c r="B4664">
-        <v>13.82137671878838</v>
+        <v>13.82137671878837</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>40.89366737961082</v>
+        <v>40.89366737961081</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37823,7 +37823,7 @@
         <v>4685</v>
       </c>
       <c r="B4685">
-        <v>44.33314908934037</v>
+        <v>44.33314908934036</v>
       </c>
     </row>
     <row r="4686" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>41.85435424434271</v>
+        <v>41.8543542443427</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37855,7 +37855,7 @@
         <v>4689</v>
       </c>
       <c r="B4689">
-        <v>22.11912634351092</v>
+        <v>22.11912634351091</v>
       </c>
     </row>
     <row r="4690" spans="1:2">
@@ -38039,7 +38039,7 @@
         <v>4712</v>
       </c>
       <c r="B4712">
-        <v>74.92888631246883</v>
+        <v>74.92888631246882</v>
       </c>
     </row>
     <row r="4713" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>26.77089640466312</v>
+        <v>26.77089640466311</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>4.263333706510457</v>
+        <v>4.263333706510456</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38223,7 +38223,7 @@
         <v>4735</v>
       </c>
       <c r="B4735">
-        <v>81.34948662746159</v>
+        <v>81.34948662746157</v>
       </c>
     </row>
     <row r="4736" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>7.425599520770239</v>
+        <v>7.425599520770238</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38367,7 +38367,7 @@
         <v>4753</v>
       </c>
       <c r="B4753">
-        <v>5.20215747175821</v>
+        <v>5.202157471758209</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38375,7 +38375,7 @@
         <v>4754</v>
       </c>
       <c r="B4754">
-        <v>6.410899663613063</v>
+        <v>6.410899663613062</v>
       </c>
     </row>
     <row r="4755" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>18.91471691389163</v>
+        <v>18.91471691389162</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>10.61784650228508</v>
+        <v>10.61784650228507</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>5.929764939442732</v>
+        <v>5.929764939442731</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38943,7 +38943,7 @@
         <v>4825</v>
       </c>
       <c r="B4825">
-        <v>3.1704718033423</v>
+        <v>3.170471803342299</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>7.040299026242168</v>
+        <v>7.040299026242167</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -38991,7 +38991,7 @@
         <v>4831</v>
       </c>
       <c r="B4831">
-        <v>8.996665437722113</v>
+        <v>8.996665437722111</v>
       </c>
     </row>
     <row r="4832" spans="1:2">
@@ -39015,7 +39015,7 @@
         <v>4834</v>
       </c>
       <c r="B4834">
-        <v>8.794944641811508</v>
+        <v>8.794944641811506</v>
       </c>
     </row>
     <row r="4835" spans="1:2">
@@ -39159,7 +39159,7 @@
         <v>4852</v>
       </c>
       <c r="B4852">
-        <v>24.85473933968751</v>
+        <v>24.8547393396875</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39175,7 +39175,7 @@
         <v>4854</v>
       </c>
       <c r="B4854">
-        <v>25.81202658037093</v>
+        <v>25.81202658037092</v>
       </c>
     </row>
     <row r="4855" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>10.85250848294122</v>
+        <v>10.85250848294121</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39295,7 +39295,7 @@
         <v>4869</v>
       </c>
       <c r="B4869">
-        <v>17.13006082396337</v>
+        <v>17.13006082396336</v>
       </c>
     </row>
     <row r="4870" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>8.187994520743862</v>
+        <v>8.18799452074386</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>6.492637176295712</v>
+        <v>6.492637176295711</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>6.249036528960401</v>
+        <v>6.2490365289604</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39711,7 +39711,7 @@
         <v>4921</v>
       </c>
       <c r="B4921">
-        <v>4.360457448722826</v>
+        <v>4.360457448722825</v>
       </c>
     </row>
     <row r="4922" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>16.06345808585927</v>
+        <v>16.06345808585926</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40023,7 +40023,7 @@
         <v>4960</v>
       </c>
       <c r="B4960">
-        <v>9.989238431460356</v>
+        <v>9.989238431460354</v>
       </c>
     </row>
     <row r="4961" spans="1:2">
@@ -40087,7 +40087,7 @@
         <v>4968</v>
       </c>
       <c r="B4968">
-        <v>6.346277499588236</v>
+        <v>6.346277499588235</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40495,7 +40495,7 @@
         <v>5019</v>
       </c>
       <c r="B5019">
-        <v>41.56392084502932</v>
+        <v>41.56392084502931</v>
       </c>
     </row>
     <row r="5020" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>30.91635693942398</v>
+        <v>30.91635693942397</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40687,7 +40687,7 @@
         <v>5043</v>
       </c>
       <c r="B5043">
-        <v>47.50241930142416</v>
+        <v>47.50241930142415</v>
       </c>
     </row>
     <row r="5044" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>65.01898221117411</v>
+        <v>65.01898221117409</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>55.20403312640565</v>
+        <v>55.20403312640564</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>44.05033553703217</v>
+        <v>44.05033553703216</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>35.30656109857093</v>
+        <v>35.30656109857092</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40831,7 +40831,7 @@
         <v>5061</v>
       </c>
       <c r="B5061">
-        <v>5.728688899817183</v>
+        <v>5.728688899817182</v>
       </c>
     </row>
     <row r="5062" spans="1:2">
@@ -40855,7 +40855,7 @@
         <v>5064</v>
       </c>
       <c r="B5064">
-        <v>15.25909531314934</v>
+        <v>15.25909531314933</v>
       </c>
     </row>
     <row r="5065" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>9.07758235149651</v>
+        <v>9.077582351496508</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>14.94125977172111</v>
+        <v>14.9412597717211</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41287,7 +41287,7 @@
         <v>5118</v>
       </c>
       <c r="B5118">
-        <v>6.418314360891195</v>
+        <v>6.418314360891194</v>
       </c>
     </row>
     <row r="5119" spans="1:2">
@@ -41479,7 +41479,7 @@
         <v>5142</v>
       </c>
       <c r="B5142">
-        <v>6.675161819173997</v>
+        <v>6.675161819173996</v>
       </c>
     </row>
     <row r="5143" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>10.22237644271546</v>
+        <v>10.22237644271545</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>8.153558673701154</v>
+        <v>8.153558673701152</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>55.66239623087199</v>
+        <v>55.66239623087198</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42175,7 +42175,7 @@
         <v>5229</v>
       </c>
       <c r="B5229">
-        <v>6.95627555945796</v>
+        <v>6.956275559457959</v>
       </c>
     </row>
     <row r="5230" spans="1:2">
@@ -42279,7 +42279,7 @@
         <v>5242</v>
       </c>
       <c r="B5242">
-        <v>39.46699756340739</v>
+        <v>39.46699756340738</v>
       </c>
     </row>
     <row r="5243" spans="1:2">
@@ -42327,7 +42327,7 @@
         <v>5248</v>
       </c>
       <c r="B5248">
-        <v>14.99565375649666</v>
+        <v>14.99565375649665</v>
       </c>
     </row>
     <row r="5249" spans="1:2">
@@ -42831,7 +42831,7 @@
         <v>5311</v>
       </c>
       <c r="B5311">
-        <v>88.25892943494146</v>
+        <v>88.25892943494145</v>
       </c>
     </row>
     <row r="5312" spans="1:2">
@@ -42839,7 +42839,7 @@
         <v>5312</v>
       </c>
       <c r="B5312">
-        <v>66.23903694512128</v>
+        <v>66.23903694512127</v>
       </c>
     </row>
     <row r="5313" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>12.67599648549211</v>
+        <v>12.6759964854921</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43167,7 +43167,7 @@
         <v>5353</v>
       </c>
       <c r="B5353">
-        <v>36.72590413880783</v>
+        <v>36.72590413880782</v>
       </c>
     </row>
     <row r="5354" spans="1:2">
@@ -43279,7 +43279,7 @@
         <v>5367</v>
       </c>
       <c r="B5367">
-        <v>13.7799071668178</v>
+        <v>13.77990716681779</v>
       </c>
     </row>
     <row r="5368" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>33.69144660450826</v>
+        <v>33.69144660450825</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43423,7 +43423,7 @@
         <v>5385</v>
       </c>
       <c r="B5385">
-        <v>44.80206275119852</v>
+        <v>44.80206275119851</v>
       </c>
     </row>
     <row r="5386" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>74.46847171073186</v>
+        <v>74.46847171073185</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43671,7 +43671,7 @@
         <v>5416</v>
       </c>
       <c r="B5416">
-        <v>7.776376246944002</v>
+        <v>7.776376246944001</v>
       </c>
     </row>
     <row r="5417" spans="1:2">
@@ -43815,7 +43815,7 @@
         <v>5434</v>
       </c>
       <c r="B5434">
-        <v>36.26226575564558</v>
+        <v>36.26226575564557</v>
       </c>
     </row>
     <row r="5435" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>30.62973346361318</v>
+        <v>30.62973346361317</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43911,7 +43911,7 @@
         <v>5446</v>
       </c>
       <c r="B5446">
-        <v>5.421872829442621</v>
+        <v>5.42187282944262</v>
       </c>
     </row>
     <row r="5447" spans="1:2">
@@ -43999,7 +43999,7 @@
         <v>5457</v>
       </c>
       <c r="B5457">
-        <v>48.17472426411328</v>
+        <v>48.17472426411327</v>
       </c>
     </row>
     <row r="5458" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>27.28719965347281</v>
+        <v>27.2871996534728</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>29.70773197598459</v>
+        <v>29.70773197598458</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44103,7 +44103,7 @@
         <v>5470</v>
       </c>
       <c r="B5470">
-        <v>7.854977899512975</v>
+        <v>7.854977899512974</v>
       </c>
     </row>
     <row r="5471" spans="1:2">
@@ -44119,7 +44119,7 @@
         <v>5472</v>
       </c>
       <c r="B5472">
-        <v>14.01644480212137</v>
+        <v>14.01644480212136</v>
       </c>
     </row>
     <row r="5473" spans="1:2">
@@ -44135,7 +44135,7 @@
         <v>5474</v>
       </c>
       <c r="B5474">
-        <v>19.00873410309419</v>
+        <v>19.00873410309418</v>
       </c>
     </row>
     <row r="5475" spans="1:2">
@@ -44247,7 +44247,7 @@
         <v>5488</v>
       </c>
       <c r="B5488">
-        <v>16.61639521450163</v>
+        <v>16.61639521450162</v>
       </c>
     </row>
     <row r="5489" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>22.65820121202459</v>
+        <v>22.65820121202458</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44351,7 +44351,7 @@
         <v>5501</v>
       </c>
       <c r="B5501">
-        <v>18.10068279690588</v>
+        <v>18.10068279690587</v>
       </c>
     </row>
     <row r="5502" spans="1:2">
@@ -44503,7 +44503,7 @@
         <v>5520</v>
       </c>
       <c r="B5520">
-        <v>39.24045365052217</v>
+        <v>39.24045365052216</v>
       </c>
     </row>
     <row r="5521" spans="1:2">
@@ -44527,7 +44527,7 @@
         <v>5523</v>
       </c>
       <c r="B5523">
-        <v>44.39410786538193</v>
+        <v>44.39410786538192</v>
       </c>
     </row>
     <row r="5524" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>46.55492063343203</v>
+        <v>46.55492063343202</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44655,7 +44655,7 @@
         <v>5539</v>
       </c>
       <c r="B5539">
-        <v>27.25027270260148</v>
+        <v>27.25027270260147</v>
       </c>
     </row>
     <row r="5540" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>6.401580004583631</v>
+        <v>6.40158000458363</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44967,7 +44967,7 @@
         <v>5578</v>
       </c>
       <c r="B5578">
-        <v>38.33867406456121</v>
+        <v>38.3386740645612</v>
       </c>
     </row>
     <row r="5579" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>36.06590815974248</v>
+        <v>36.06590815974247</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>76.63104290501393</v>
+        <v>76.63104290501391</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>37.57932700338967</v>
+        <v>37.57932700338966</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>19.3221735789425</v>
+        <v>19.32217357894249</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>18.70801391032379</v>
+        <v>18.70801391032378</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>23.00760050431665</v>
+        <v>23.00760050431664</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45703,7 +45703,7 @@
         <v>5670</v>
       </c>
       <c r="B5670">
-        <v>37.72205259921774</v>
+        <v>37.72205259921773</v>
       </c>
     </row>
     <row r="5671" spans="1:2">
@@ -45871,7 +45871,7 @@
         <v>5691</v>
       </c>
       <c r="B5691">
-        <v>41.9560498947582</v>
+        <v>41.95604989475819</v>
       </c>
     </row>
     <row r="5692" spans="1:2">
@@ -46055,7 +46055,7 @@
         <v>5714</v>
       </c>
       <c r="B5714">
-        <v>34.44317381867461</v>
+        <v>34.4431738186746</v>
       </c>
     </row>
     <row r="5715" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>83.5404857124938</v>
+        <v>83.54048571249379</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46223,7 +46223,7 @@
         <v>5735</v>
       </c>
       <c r="B5735">
-        <v>7.367073234349568</v>
+        <v>7.367073234349567</v>
       </c>
     </row>
     <row r="5736" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>65.0394971838804</v>
+        <v>65.03949718388039</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46367,7 +46367,7 @@
         <v>5753</v>
       </c>
       <c r="B5753">
-        <v>21.7969533507105</v>
+        <v>21.79695335071049</v>
       </c>
     </row>
     <row r="5754" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>6.524523305302066</v>
+        <v>6.524523305302065</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>59.07901839958596</v>
+        <v>59.07901839958595</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46599,7 +46599,7 @@
         <v>5782</v>
       </c>
       <c r="B5782">
-        <v>4.929513484491561</v>
+        <v>4.92951348449156</v>
       </c>
     </row>
     <row r="5783" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>11.72023321420973</v>
+        <v>11.72023321420972</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -47135,7 +47135,7 @@
         <v>5849</v>
       </c>
       <c r="B5849">
-        <v>10.7158787647173</v>
+        <v>10.71587876471729</v>
       </c>
     </row>
     <row r="5850" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>34.33356525021527</v>
+        <v>34.33356525021526</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>40.56015253761421</v>
+        <v>40.5601525376142</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47303,7 +47303,7 @@
         <v>5870</v>
       </c>
       <c r="B5870">
-        <v>12.91276857762661</v>
+        <v>12.9127685776266</v>
       </c>
     </row>
     <row r="5871" spans="1:2">
@@ -47391,7 +47391,7 @@
         <v>5881</v>
       </c>
       <c r="B5881">
-        <v>36.97296302439934</v>
+        <v>36.97296302439933</v>
       </c>
     </row>
     <row r="5882" spans="1:2">
@@ -47455,7 +47455,7 @@
         <v>5889</v>
       </c>
       <c r="B5889">
-        <v>34.07126667061336</v>
+        <v>34.07126667061335</v>
       </c>
     </row>
     <row r="5890" spans="1:2">
@@ -47527,7 +47527,7 @@
         <v>5898</v>
       </c>
       <c r="B5898">
-        <v>26.40625741836067</v>
+        <v>26.40625741836066</v>
       </c>
     </row>
     <row r="5899" spans="1:2">
@@ -47583,7 +47583,7 @@
         <v>5905</v>
       </c>
       <c r="B5905">
-        <v>55.87428659182415</v>
+        <v>55.87428659182414</v>
       </c>
     </row>
     <row r="5906" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>57.65762386207843</v>
+        <v>57.65762386207842</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>61.40776087278901</v>
+        <v>61.407760872789</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>47.79519726904684</v>
+        <v>47.79519726904683</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>37.85188306934472</v>
+        <v>37.85188306934471</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47959,7 +47959,7 @@
         <v>5952</v>
       </c>
       <c r="B5952">
-        <v>20.63161497968139</v>
+        <v>20.63161497968138</v>
       </c>
     </row>
     <row r="5953" spans="1:2">
@@ -47999,7 +47999,7 @@
         <v>5957</v>
       </c>
       <c r="B5957">
-        <v>39.82366501745825</v>
+        <v>39.82366501745824</v>
       </c>
     </row>
     <row r="5958" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>33.14105919390225</v>
+        <v>33.14105919390224</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48023,7 +48023,7 @@
         <v>5960</v>
       </c>
       <c r="B5960">
-        <v>86.16933292928607</v>
+        <v>86.16933292928606</v>
       </c>
     </row>
     <row r="5961" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>34.96015113087322</v>
+        <v>34.96015113087321</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48079,7 +48079,7 @@
         <v>5967</v>
       </c>
       <c r="B5967">
-        <v>17.66374318536568</v>
+        <v>17.66374318536567</v>
       </c>
     </row>
     <row r="5968" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>47.19147092940447</v>
+        <v>47.19147092940446</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>7.458335555788711</v>
+        <v>7.45833555578871</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48575,7 +48575,7 @@
         <v>6029</v>
       </c>
       <c r="B6029">
-        <v>42.18024923933413</v>
+        <v>42.18024923933412</v>
       </c>
     </row>
     <row r="6030" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>23.9114608946521</v>
+        <v>23.91146089465209</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -48647,7 +48647,7 @@
         <v>6038</v>
       </c>
       <c r="B6038">
-        <v>20.34783429294561</v>
+        <v>20.3478342929456</v>
       </c>
     </row>
     <row r="6039" spans="1:2">
@@ -48711,7 +48711,7 @@
         <v>6046</v>
       </c>
       <c r="B6046">
-        <v>42.60080617981316</v>
+        <v>42.60080617981315</v>
       </c>
     </row>
     <row r="6047" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>43.99435896864785</v>
+        <v>43.99435896864784</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>8.410787124334217</v>
+        <v>8.410787124334215</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>17.1631778513321</v>
+        <v>17.16317785133209</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>8.433119137480212</v>
+        <v>8.43311913748021</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>31.21587554093588</v>
+        <v>31.21587554093587</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49175,7 +49175,7 @@
         <v>6104</v>
       </c>
       <c r="B6104">
-        <v>76.01236994239983</v>
+        <v>76.01236994239981</v>
       </c>
     </row>
     <row r="6105" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>36.32820673934438</v>
+        <v>36.32820673934437</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>26.37806398444145</v>
+        <v>26.37806398444144</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>5.960508091398307</v>
+        <v>5.960508091398306</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49367,7 +49367,7 @@
         <v>6128</v>
       </c>
       <c r="B6128">
-        <v>74.29966279246293</v>
+        <v>74.29966279246291</v>
       </c>
     </row>
     <row r="6129" spans="1:2">
@@ -49375,7 +49375,7 @@
         <v>6129</v>
       </c>
       <c r="B6129">
-        <v>45.00574712306816</v>
+        <v>45.00574712306815</v>
       </c>
     </row>
     <row r="6130" spans="1:2">
@@ -49711,7 +49711,7 @@
         <v>6171</v>
       </c>
       <c r="B6171">
-        <v>23.78168903873286</v>
+        <v>23.78168903873285</v>
       </c>
     </row>
     <row r="6172" spans="1:2">
@@ -49735,7 +49735,7 @@
         <v>6174</v>
       </c>
       <c r="B6174">
-        <v>31.67042872189962</v>
+        <v>31.67042872189961</v>
       </c>
     </row>
     <row r="6175" spans="1:2">
@@ -49743,7 +49743,7 @@
         <v>6175</v>
       </c>
       <c r="B6175">
-        <v>31.49605145389612</v>
+        <v>31.49605145389611</v>
       </c>
     </row>
     <row r="6176" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>40.3714147887163</v>
+        <v>40.37141478871629</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>54.42944637122371</v>
+        <v>54.4294463712237</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>32.54759034061303</v>
+        <v>32.54759034061302</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -50111,7 +50111,7 @@
         <v>6221</v>
       </c>
       <c r="B6221">
-        <v>45.36212150608035</v>
+        <v>45.36212150608034</v>
       </c>
     </row>
     <row r="6222" spans="1:2">
@@ -50239,7 +50239,7 @@
         <v>6237</v>
       </c>
       <c r="B6237">
-        <v>5.161332676072685</v>
+        <v>5.161332676072684</v>
       </c>
     </row>
     <row r="6238" spans="1:2">
@@ -50287,7 +50287,7 @@
         <v>6243</v>
       </c>
       <c r="B6243">
-        <v>21.15081963177383</v>
+        <v>21.15081963177382</v>
       </c>
     </row>
     <row r="6244" spans="1:2">
@@ -50639,7 +50639,7 @@
         <v>6287</v>
       </c>
       <c r="B6287">
-        <v>6.628915209273237</v>
+        <v>6.628915209273236</v>
       </c>
     </row>
     <row r="6288" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>17.46099664081976</v>
+        <v>17.46099664081975</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50839,7 +50839,7 @@
         <v>6312</v>
       </c>
       <c r="B6312">
-        <v>9.980094615054124</v>
+        <v>9.980094615054121</v>
       </c>
     </row>
     <row r="6313" spans="1:2">
@@ -50911,7 +50911,7 @@
         <v>6321</v>
       </c>
       <c r="B6321">
-        <v>56.33001205694254</v>
+        <v>56.33001205694253</v>
       </c>
     </row>
     <row r="6322" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>33.27118273506789</v>
+        <v>33.27118273506788</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -51055,7 +51055,7 @@
         <v>6339</v>
       </c>
       <c r="B6339">
-        <v>50.43723268257887</v>
+        <v>50.43723268257886</v>
       </c>
     </row>
     <row r="6340" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>45.00076491541091</v>
+        <v>45.0007649154109</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51399,7 +51399,7 @@
         <v>6382</v>
       </c>
       <c r="B6382">
-        <v>51.73407202865532</v>
+        <v>51.73407202865531</v>
       </c>
     </row>
     <row r="6383" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>54.00390722308744</v>
+        <v>54.00390722308743</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>104.9100535675245</v>
+        <v>104.9100535675244</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51695,7 +51695,7 @@
         <v>6419</v>
       </c>
       <c r="B6419">
-        <v>63.65444345516688</v>
+        <v>63.65444345516687</v>
       </c>
     </row>
     <row r="6420" spans="1:2">
@@ -51703,7 +51703,7 @@
         <v>6420</v>
       </c>
       <c r="B6420">
-        <v>58.60248489072261</v>
+        <v>58.6024848907226</v>
       </c>
     </row>
     <row r="6421" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>36.26959253161211</v>
+        <v>36.2695925316121</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52279,7 +52279,7 @@
         <v>6492</v>
       </c>
       <c r="B6492">
-        <v>52.86034403023087</v>
+        <v>52.86034403023086</v>
       </c>
     </row>
     <row r="6493" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>41.35994340212102</v>
+        <v>41.35994340212101</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52447,7 +52447,7 @@
         <v>6513</v>
       </c>
       <c r="B6513">
-        <v>27.43033554875501</v>
+        <v>27.430335548755</v>
       </c>
     </row>
     <row r="6514" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>19.37322655387731</v>
+        <v>19.3732265538773</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52639,7 +52639,7 @@
         <v>6537</v>
       </c>
       <c r="B6537">
-        <v>33.31690181709906</v>
+        <v>33.31690181709905</v>
       </c>
     </row>
     <row r="6538" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>27.70670153821266</v>
+        <v>27.70670153821265</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>39.82864722511549</v>
+        <v>39.82864722511548</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>54.50066263361842</v>
+        <v>54.50066263361841</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>44.35600863035595</v>
+        <v>44.35600863035594</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52895,7 +52895,7 @@
         <v>6569</v>
       </c>
       <c r="B6569">
-        <v>59.97288506750306</v>
+        <v>59.97288506750305</v>
       </c>
     </row>
     <row r="6570" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>48.8804393252098</v>
+        <v>48.88043932520979</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -52991,7 +52991,7 @@
         <v>6581</v>
       </c>
       <c r="B6581">
-        <v>48.71749182771409</v>
+        <v>48.71749182771408</v>
       </c>
     </row>
     <row r="6582" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>41.764967577551</v>
+        <v>41.76496757755099</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53047,7 +53047,7 @@
         <v>6588</v>
       </c>
       <c r="B6588">
-        <v>34.35642479123085</v>
+        <v>34.35642479123084</v>
       </c>
     </row>
     <row r="6589" spans="1:2">
@@ -53119,7 +53119,7 @@
         <v>6597</v>
       </c>
       <c r="B6597">
-        <v>6.901559196539886</v>
+        <v>6.901559196539885</v>
       </c>
     </row>
     <row r="6598" spans="1:2">
@@ -53143,7 +53143,7 @@
         <v>6600</v>
       </c>
       <c r="B6600">
-        <v>19.26092173186228</v>
+        <v>19.26092173186227</v>
       </c>
     </row>
     <row r="6601" spans="1:2">
@@ -53151,7 +53151,7 @@
         <v>6601</v>
       </c>
       <c r="B6601">
-        <v>23.50913297277781</v>
+        <v>23.5091329727778</v>
       </c>
     </row>
     <row r="6602" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>29.67695951692515</v>
+        <v>29.67695951692514</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>83.97628234698323</v>
+        <v>83.97628234698321</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>18.25337280804844</v>
+        <v>18.25337280804843</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>37.42370628186049</v>
+        <v>37.42370628186048</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53711,7 +53711,7 @@
         <v>6671</v>
       </c>
       <c r="B6671">
-        <v>7.137833067908663</v>
+        <v>7.137833067908662</v>
       </c>
     </row>
     <row r="6672" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>35.58703008256984</v>
+        <v>35.58703008256983</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53847,7 +53847,7 @@
         <v>6688</v>
       </c>
       <c r="B6688">
-        <v>34.71572988462966</v>
+        <v>34.71572988462965</v>
       </c>
     </row>
     <row r="6689" spans="1:2">
@@ -53887,7 +53887,7 @@
         <v>6693</v>
       </c>
       <c r="B6693">
-        <v>56.59993048354964</v>
+        <v>56.59993048354963</v>
       </c>
     </row>
     <row r="6694" spans="1:2">
@@ -53903,7 +53903,7 @@
         <v>6695</v>
       </c>
       <c r="B6695">
-        <v>62.94140161810383</v>
+        <v>62.94140161810382</v>
       </c>
     </row>
     <row r="6696" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>63.62894627480334</v>
+        <v>63.62894627480333</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54055,7 +54055,7 @@
         <v>6714</v>
       </c>
       <c r="B6714">
-        <v>51.89965716549898</v>
+        <v>51.89965716549897</v>
       </c>
     </row>
     <row r="6715" spans="1:2">
@@ -54103,7 +54103,7 @@
         <v>6720</v>
       </c>
       <c r="B6720">
-        <v>79.67780942293727</v>
+        <v>79.67780942293726</v>
       </c>
     </row>
     <row r="6721" spans="1:2">
@@ -54119,7 +54119,7 @@
         <v>6722</v>
       </c>
       <c r="B6722">
-        <v>82.41128300053164</v>
+        <v>82.41128300053163</v>
       </c>
     </row>
     <row r="6723" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>83.6398367946</v>
+        <v>83.63983679459999</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54151,7 +54151,7 @@
         <v>6726</v>
       </c>
       <c r="B6726">
-        <v>84.64389817305377</v>
+        <v>84.64389817305376</v>
       </c>
     </row>
     <row r="6727" spans="1:2">
@@ -54287,7 +54287,7 @@
         <v>6743</v>
       </c>
       <c r="B6743">
-        <v>85.65001104877817</v>
+        <v>85.65001104877815</v>
       </c>
     </row>
     <row r="6744" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>52.06787994169059</v>
+        <v>52.06787994169058</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54455,7 +54455,7 @@
         <v>6764</v>
       </c>
       <c r="B6764">
-        <v>19.04718502336656</v>
+        <v>19.04718502336655</v>
       </c>
     </row>
     <row r="6765" spans="1:2">
@@ -54511,7 +54511,7 @@
         <v>6771</v>
       </c>
       <c r="B6771">
-        <v>64.97241322313081</v>
+        <v>64.9724132231308</v>
       </c>
     </row>
     <row r="6772" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>70.64867171413148</v>
+        <v>70.64867171413147</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>5.502760436113152</v>
+        <v>5.502760436113151</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54663,7 +54663,7 @@
         <v>6790</v>
       </c>
       <c r="B6790">
-        <v>19.48353849282944</v>
+        <v>19.48353849282943</v>
       </c>
     </row>
     <row r="6791" spans="1:2">
@@ -54719,7 +54719,7 @@
         <v>6797</v>
       </c>
       <c r="B6797">
-        <v>45.80817562692292</v>
+        <v>45.80817562692291</v>
       </c>
     </row>
     <row r="6798" spans="1:2">
@@ -54847,7 +54847,7 @@
         <v>6813</v>
       </c>
       <c r="B6813">
-        <v>6.895639161558928</v>
+        <v>6.895639161558927</v>
       </c>
     </row>
     <row r="6814" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>40.56279017696216</v>
+        <v>40.56279017696215</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>22.13879141020509</v>
+        <v>22.13879141020508</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55079,7 +55079,7 @@
         <v>6842</v>
       </c>
       <c r="B6842">
-        <v>29.22530773924415</v>
+        <v>29.22530773924414</v>
       </c>
     </row>
     <row r="6843" spans="1:2">
@@ -55127,7 +55127,7 @@
         <v>6848</v>
       </c>
       <c r="B6848">
-        <v>33.12083729223462</v>
+        <v>33.12083729223461</v>
       </c>
     </row>
     <row r="6849" spans="1:2">
@@ -55343,7 +55343,7 @@
         <v>6875</v>
       </c>
       <c r="B6875">
-        <v>36.38447637876736</v>
+        <v>36.38447637876735</v>
       </c>
     </row>
     <row r="6876" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>33.63283239677599</v>
+        <v>33.63283239677598</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55431,7 +55431,7 @@
         <v>6886</v>
       </c>
       <c r="B6886">
-        <v>46.78673982501315</v>
+        <v>46.78673982501314</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>50.0958049225384</v>
+        <v>50.09580492253839</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55527,7 +55527,7 @@
         <v>6898</v>
       </c>
       <c r="B6898">
-        <v>58.51573586327885</v>
+        <v>58.51573586327884</v>
       </c>
     </row>
     <row r="6899" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>52.68948361469131</v>
+        <v>52.6894836146913</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>48.9138494236172</v>
+        <v>48.91384942361719</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55607,7 +55607,7 @@
         <v>6908</v>
       </c>
       <c r="B6908">
-        <v>12.83665802888626</v>
+        <v>12.83665802888625</v>
       </c>
     </row>
     <row r="6909" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>20.19353239109041</v>
+        <v>20.1935323910904</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>43.3419828365877</v>
+        <v>43.34198283658769</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55695,7 +55695,7 @@
         <v>6919</v>
       </c>
       <c r="B6919">
-        <v>127.8282087908417</v>
+        <v>127.8282087908416</v>
       </c>
     </row>
     <row r="6920" spans="1:2">
@@ -55879,7 +55879,7 @@
         <v>6942</v>
       </c>
       <c r="B6942">
-        <v>58.68014871596787</v>
+        <v>58.68014871596786</v>
       </c>
     </row>
     <row r="6943" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>75.37992264096864</v>
+        <v>75.37992264096863</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>57.65967535934906</v>
+        <v>57.65967535934905</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>59.03828152521203</v>
+        <v>59.03828152521202</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>46.72285033858498</v>
+        <v>46.72285033858497</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56135,7 +56135,7 @@
         <v>6974</v>
       </c>
       <c r="B6974">
-        <v>37.73729229322813</v>
+        <v>37.73729229322812</v>
       </c>
     </row>
     <row r="6975" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>46.54964535473612</v>
+        <v>46.54964535473611</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56175,7 +56175,7 @@
         <v>6979</v>
       </c>
       <c r="B6979">
-        <v>4.577711009682481</v>
+        <v>4.57771100968248</v>
       </c>
     </row>
     <row r="6980" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>63.10587601571096</v>
+        <v>63.10587601571095</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56439,7 +56439,7 @@
         <v>7012</v>
       </c>
       <c r="B7012">
-        <v>55.16857153072763</v>
+        <v>55.16857153072762</v>
       </c>
     </row>
     <row r="7013" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>63.22157753106407</v>
+        <v>63.22157753106406</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>65.50782470366123</v>
+        <v>65.50782470366121</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56655,7 +56655,7 @@
         <v>7039</v>
       </c>
       <c r="B7039">
-        <v>66.41781027870471</v>
+        <v>66.41781027870469</v>
       </c>
     </row>
     <row r="7040" spans="1:2">
@@ -56663,7 +56663,7 @@
         <v>7040</v>
       </c>
       <c r="B7040">
-        <v>56.67671509567891</v>
+        <v>56.6767150956789</v>
       </c>
     </row>
     <row r="7041" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>19.26335422148317</v>
+        <v>19.26335422148316</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>54.08801861118325</v>
+        <v>54.08801861118324</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>60.50070600813214</v>
+        <v>60.50070600813213</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>44.01487394135415</v>
+        <v>44.01487394135414</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -56959,7 +56959,7 @@
         <v>7077</v>
       </c>
       <c r="B7077">
-        <v>9.24961505119072</v>
+        <v>9.249615051190718</v>
       </c>
     </row>
     <row r="7078" spans="1:2">
@@ -57015,7 +57015,7 @@
         <v>7084</v>
       </c>
       <c r="B7084">
-        <v>42.25674078042474</v>
+        <v>42.25674078042473</v>
       </c>
     </row>
     <row r="7085" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>24.32603918594244</v>
+        <v>24.32603918594243</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>49.12251600314407</v>
+        <v>49.12251600314406</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>14.94999328867322</v>
+        <v>14.94999328867321</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>39.21231883081068</v>
+        <v>39.21231883081067</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57455,7 +57455,7 @@
         <v>7139</v>
       </c>
       <c r="B7139">
-        <v>27.57429204294546</v>
+        <v>27.57429204294545</v>
       </c>
     </row>
     <row r="7140" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>26.03297283641772</v>
+        <v>26.03297283641771</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>40.53362667790497</v>
+        <v>40.53362667790496</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>56.99733481197442</v>
+        <v>56.99733481197441</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>60.08014906765311</v>
+        <v>60.0801490676531</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>61.26708677423156</v>
+        <v>61.26708677423155</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57799,7 +57799,7 @@
         <v>7182</v>
       </c>
       <c r="B7182">
-        <v>62.2175161526103</v>
+        <v>62.21751615261029</v>
       </c>
     </row>
     <row r="7183" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>63.28488087541492</v>
+        <v>63.28488087541491</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>57.49174565419611</v>
+        <v>57.4917456541961</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>46.63111910348398</v>
+        <v>46.63111910348397</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>43.04158502195982</v>
+        <v>43.04158502195981</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -57871,7 +57871,7 @@
         <v>7191</v>
       </c>
       <c r="B7191">
-        <v>46.35094319052373</v>
+        <v>46.35094319052372</v>
       </c>
     </row>
     <row r="7192" spans="1:2">
@@ -57887,7 +57887,7 @@
         <v>7193</v>
       </c>
       <c r="B7193">
-        <v>51.55324719780127</v>
+        <v>51.55324719780126</v>
       </c>
     </row>
     <row r="7194" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>77.83996093949197</v>
+        <v>77.83996093949196</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>79.89632318936317</v>
+        <v>79.89632318936316</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>81.80266237454363</v>
+        <v>81.80266237454362</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -57959,7 +57959,7 @@
         <v>7202</v>
       </c>
       <c r="B7202">
-        <v>85.92242057921389</v>
+        <v>85.92242057921388</v>
       </c>
     </row>
     <row r="7203" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>94.03755763974654</v>
+        <v>94.03755763974652</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58023,7 +58023,7 @@
         <v>7210</v>
       </c>
       <c r="B7210">
-        <v>67.7217126368129</v>
+        <v>67.72171263681288</v>
       </c>
     </row>
     <row r="7211" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>56.10441476351219</v>
+        <v>56.10441476351218</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58055,7 +58055,7 @@
         <v>7214</v>
       </c>
       <c r="B7214">
-        <v>47.46666463470747</v>
+        <v>47.46666463470746</v>
       </c>
     </row>
     <row r="7215" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>80.44606584368412</v>
+        <v>80.44606584368411</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>57.8815301356157</v>
+        <v>57.88153013561569</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>41.6990265938522</v>
+        <v>41.69902659385219</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58335,7 +58335,7 @@
         <v>7249</v>
       </c>
       <c r="B7249">
-        <v>60.83436738564809</v>
+        <v>60.83436738564807</v>
       </c>
     </row>
     <row r="7250" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>49.62454669237096</v>
+        <v>49.62454669237095</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58431,7 +58431,7 @@
         <v>7261</v>
       </c>
       <c r="B7261">
-        <v>40.60821618795467</v>
+        <v>40.60821618795466</v>
       </c>
     </row>
     <row r="7262" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>47.4945063833803</v>
+        <v>47.49450638338029</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>50.94688321881095</v>
+        <v>50.94688321881094</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>156.7767109340702</v>
+        <v>156.7767109340701</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58615,7 +58615,7 @@
         <v>7284</v>
       </c>
       <c r="B7284">
-        <v>56.65590705193395</v>
+        <v>56.65590705193394</v>
       </c>
     </row>
     <row r="7285" spans="1:2">
@@ -58647,7 +58647,7 @@
         <v>7288</v>
       </c>
       <c r="B7288">
-        <v>33.6304878284667</v>
+        <v>33.63048782846669</v>
       </c>
     </row>
     <row r="7289" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>3.66760820622354</v>
+        <v>3.667608206223539</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58719,7 +58719,7 @@
         <v>7297</v>
       </c>
       <c r="B7297">
-        <v>48.76877925947983</v>
+        <v>48.76877925947982</v>
       </c>
     </row>
     <row r="7298" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>57.95035493833493</v>
+        <v>57.95035493833492</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>64.69513871345332</v>
+        <v>64.6951387134533</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58831,7 +58831,7 @@
         <v>7311</v>
       </c>
       <c r="B7311">
-        <v>37.07495174585349</v>
+        <v>37.07495174585348</v>
       </c>
     </row>
     <row r="7312" spans="1:2">
@@ -58879,7 +58879,7 @@
         <v>7317</v>
       </c>
       <c r="B7317">
-        <v>21.4134112824144</v>
+        <v>21.41341128241439</v>
       </c>
     </row>
     <row r="7318" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>60.16689809509687</v>
+        <v>60.16689809509686</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>54.25858595568415</v>
+        <v>54.25858595568414</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>31.68332384760072</v>
+        <v>31.68332384760071</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>28.62386735370334</v>
+        <v>28.62386735370333</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>70.34170910823759</v>
+        <v>70.34170910823758</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>76.31455549036355</v>
+        <v>76.31455549036353</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>58.65251211702211</v>
+        <v>58.6525121170221</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>27.83861281271413</v>
+        <v>27.83861281271412</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59247,7 +59247,7 @@
         <v>7363</v>
       </c>
       <c r="B7363">
-        <v>50.03220850714889</v>
+        <v>50.03220850714888</v>
       </c>
     </row>
     <row r="7364" spans="1:2">
@@ -59279,7 +59279,7 @@
         <v>7367</v>
       </c>
       <c r="B7367">
-        <v>70.04843291984919</v>
+        <v>70.04843291984918</v>
       </c>
     </row>
     <row r="7368" spans="1:2">
@@ -59287,7 +59287,7 @@
         <v>7368</v>
       </c>
       <c r="B7368">
-        <v>73.62202393687016</v>
+        <v>73.62202393687015</v>
       </c>
     </row>
     <row r="7369" spans="1:2">
@@ -59311,7 +59311,7 @@
         <v>7371</v>
       </c>
       <c r="B7371">
-        <v>72.8857122593374</v>
+        <v>72.88571225933738</v>
       </c>
     </row>
     <row r="7372" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>51.0412520932599</v>
+        <v>51.04125209325989</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>73.37467198023998</v>
+        <v>73.37467198023997</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>126.3085768411749</v>
+        <v>126.3085768411748</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>52.38908580006343</v>
+        <v>52.38908580006342</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>65.07284866808006</v>
+        <v>65.07284866808004</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>97.54849006870172</v>
+        <v>97.54849006870171</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>95.24383803487663</v>
+        <v>95.24383803487662</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>64.4593337557464</v>
+        <v>64.45933375574639</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>82.93081003076661</v>
+        <v>82.93081003076659</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>63.26465897374729</v>
+        <v>63.26465897374728</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60063,7 +60063,7 @@
         <v>7465</v>
       </c>
       <c r="B7465">
-        <v>49.74783581691501</v>
+        <v>49.747835816915</v>
       </c>
     </row>
     <row r="7466" spans="1:2">
@@ -60071,7 +60071,7 @@
         <v>7466</v>
       </c>
       <c r="B7466">
-        <v>54.37622467060281</v>
+        <v>54.3762246706028</v>
       </c>
     </row>
     <row r="7467" spans="1:2">
@@ -60119,7 +60119,7 @@
         <v>7472</v>
       </c>
       <c r="B7472">
-        <v>164.012810721242</v>
+        <v>164.0128107212419</v>
       </c>
     </row>
     <row r="7473" spans="1:2">
@@ -60159,7 +60159,7 @@
         <v>7477</v>
       </c>
       <c r="B7477">
-        <v>54.61261577038705</v>
+        <v>54.61261577038704</v>
       </c>
     </row>
     <row r="7478" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>47.68822633993545</v>
+        <v>47.68822633993544</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>41.84409675798956</v>
+        <v>41.84409675798955</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>34.95018671555874</v>
+        <v>34.95018671555873</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>39.24016057948351</v>
+        <v>39.2401605794835</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>42.48592233265791</v>
+        <v>42.4859223326579</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>62.53247959785965</v>
+        <v>62.53247959785964</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>135.9557720634136</v>
+        <v>135.9557720634135</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>102.4217632208742</v>
+        <v>102.4217632208741</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>63.32356625251822</v>
+        <v>63.32356625251821</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60383,7 +60383,7 @@
         <v>7505</v>
       </c>
       <c r="B7505">
-        <v>51.69597279362935</v>
+        <v>51.69597279362934</v>
       </c>
     </row>
     <row r="7506" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>21.14756654324469</v>
+        <v>21.14756654324468</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60455,7 +60455,7 @@
         <v>7514</v>
       </c>
       <c r="B7514">
-        <v>29.24983778518011</v>
+        <v>29.2498377851801</v>
       </c>
     </row>
     <row r="7515" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>54.52147067736338</v>
+        <v>54.52147067736337</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>72.03296345814448</v>
+        <v>72.03296345814447</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>40.47340351017045</v>
+        <v>40.47340351017044</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>63.99431793870244</v>
+        <v>63.99431793870243</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>83.62195946124166</v>
+        <v>83.62195946124164</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>57.12745835314006</v>
+        <v>57.12745835314005</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>74.05787918556732</v>
+        <v>74.0578791855673</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -61015,7 +61015,7 @@
         <v>7584</v>
       </c>
       <c r="B7584">
-        <v>83.42325729702927</v>
+        <v>83.42325729702925</v>
       </c>
     </row>
     <row r="7585" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>101.493988233784</v>
+        <v>101.4939882337839</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>85.79681033204363</v>
+        <v>85.79681033204362</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>63.37866360778655</v>
+        <v>63.37866360778654</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61279,7 +61279,7 @@
         <v>7617</v>
       </c>
       <c r="B7617">
-        <v>127.5271369128249</v>
+        <v>127.5271369128248</v>
       </c>
     </row>
     <row r="7618" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>80.65816135436334</v>
+        <v>80.65816135436333</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>67.3363535280771</v>
+        <v>67.33635352807708</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>80.45037398795245</v>
+        <v>80.45037398795243</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>84.96188025000133</v>
+        <v>84.96188025000131</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61887,7 +61887,7 @@
         <v>7693</v>
       </c>
       <c r="B7693">
-        <v>43.52016416667303</v>
+        <v>43.52016416667301</v>
       </c>
     </row>
     <row r="7694" spans="1:2">
@@ -61919,7 +61919,7 @@
         <v>7697</v>
       </c>
       <c r="B7697">
-        <v>72.16338007034878</v>
+        <v>72.16338007034877</v>
       </c>
     </row>
     <row r="7698" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>72.03568901880404</v>
+        <v>72.03568901880402</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62151,7 +62151,7 @@
         <v>7726</v>
       </c>
       <c r="B7726">
-        <v>103.858426759496</v>
+        <v>103.8584267594959</v>
       </c>
     </row>
     <row r="7727" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>105.0572631502441</v>
+        <v>105.057263150244</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>46.09306998360561</v>
+        <v>46.0930699836056</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>104.298033317488</v>
+        <v>104.2980333174879</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>90.46578366316525</v>
+        <v>90.46578366316524</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>83.7557170832867</v>
+        <v>83.75571708328668</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>94.01715989545571</v>
+        <v>94.01715989545569</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>11.38490133177342</v>
+        <v>11.38490133177341</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62815,7 +62815,7 @@
         <v>7809</v>
       </c>
       <c r="B7809">
-        <v>96.81894833216204</v>
+        <v>96.81894833216202</v>
       </c>
     </row>
     <row r="7810" spans="1:2">
@@ -62895,7 +62895,7 @@
         <v>7819</v>
       </c>
       <c r="B7819">
-        <v>97.10645102108882</v>
+        <v>97.1064510210888</v>
       </c>
     </row>
     <row r="7820" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>102.8204570618691</v>
+        <v>102.820457061869</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>62.7617783785083</v>
+        <v>62.76177837850828</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>85.10721417807349</v>
+        <v>85.10721417807348</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63231,7 +63231,7 @@
         <v>7861</v>
       </c>
       <c r="B7861">
-        <v>77.15733987624198</v>
+        <v>77.15733987624196</v>
       </c>
     </row>
     <row r="7862" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>106.8926791440685</v>
+        <v>106.8926791440684</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>106.7570751744799</v>
+        <v>106.7570751744798</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>91.87495713836061</v>
+        <v>91.8749571383606</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>91.05887152410423</v>
+        <v>91.05887152410421</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>86.27489711741188</v>
+        <v>86.27489711741187</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>79.5422640675564</v>
+        <v>79.54226406755639</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63711,7 +63711,7 @@
         <v>7921</v>
       </c>
       <c r="B7921">
-        <v>65.01133305706504</v>
+        <v>65.01133305706503</v>
       </c>
     </row>
     <row r="7922" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>75.39064904098365</v>
+        <v>75.39064904098363</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>65.90807182116103</v>
+        <v>65.90807182116102</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63871,7 +63871,7 @@
         <v>7941</v>
       </c>
       <c r="B7941">
-        <v>24.52966494360434</v>
+        <v>24.52966494360433</v>
       </c>
     </row>
     <row r="7942" spans="1:2">
@@ -63879,7 +63879,7 @@
         <v>7942</v>
       </c>
       <c r="B7942">
-        <v>39.46790608362724</v>
+        <v>39.46790608362723</v>
       </c>
     </row>
     <row r="7943" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>62.09483661582667</v>
+        <v>62.09483661582666</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -63943,7 +63943,7 @@
         <v>7950</v>
       </c>
       <c r="B7950">
-        <v>89.32881456867857</v>
+        <v>89.32881456867855</v>
       </c>
     </row>
     <row r="7951" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>69.18041511754201</v>
+        <v>69.180415117542</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64103,7 +64103,7 @@
         <v>7970</v>
       </c>
       <c r="B7970">
-        <v>75.04045845688721</v>
+        <v>75.04045845688719</v>
       </c>
     </row>
     <row r="7971" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>92.5438331698974</v>
+        <v>92.54383316989738</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>80.59667505045219</v>
+        <v>80.59667505045218</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>93.29837386603489</v>
+        <v>93.29837386603488</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64407,7 +64407,7 @@
         <v>8008</v>
       </c>
       <c r="B8008">
-        <v>75.51042717448455</v>
+        <v>75.51042717448453</v>
       </c>
     </row>
     <row r="8009" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>64.20661859910872</v>
+        <v>64.20661859910871</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>30.2452242608895</v>
+        <v>30.24522426088949</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64639,7 +64639,7 @@
         <v>8037</v>
       </c>
       <c r="B8037">
-        <v>77.75318260494436</v>
+        <v>77.75318260494434</v>
       </c>
     </row>
     <row r="8038" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>87.12237063990889</v>
+        <v>87.12237063990888</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64791,7 +64791,7 @@
         <v>8056</v>
       </c>
       <c r="B8056">
-        <v>38.48872643635582</v>
+        <v>38.48872643635581</v>
       </c>
     </row>
     <row r="8057" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>73.96336377559903</v>
+        <v>73.96336377559902</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64839,7 +64839,7 @@
         <v>8062</v>
       </c>
       <c r="B8062">
-        <v>89.12184780117593</v>
+        <v>89.12184780117592</v>
       </c>
     </row>
     <row r="8063" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>49.23241764264208</v>
+        <v>49.23241764264207</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>19.4948217278179</v>
+        <v>19.49482172781789</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>29.30007016120666</v>
+        <v>29.30007016120665</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>38.39963284060277</v>
+        <v>38.39963284060276</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65207,7 +65207,7 @@
         <v>8108</v>
       </c>
       <c r="B8108">
-        <v>1.411093090498579</v>
+        <v>1.411093090498578</v>
       </c>
     </row>
     <row r="8109" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>5.976011549343492</v>
+        <v>5.976011549343491</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>41.4030541519081</v>
+        <v>41.40305415190809</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65319,7 +65319,7 @@
         <v>8122</v>
       </c>
       <c r="B8122">
-        <v>72.37682370780584</v>
+        <v>72.37682370780583</v>
       </c>
     </row>
     <row r="8123" spans="1:2">
@@ -65463,7 +65463,7 @@
         <v>8140</v>
       </c>
       <c r="B8140">
-        <v>41.13076184988785</v>
+        <v>41.13076184988784</v>
       </c>
     </row>
     <row r="8141" spans="1:2">
@@ -65575,7 +65575,7 @@
         <v>8154</v>
       </c>
       <c r="B8154">
-        <v>40.50652053753918</v>
+        <v>40.50652053753917</v>
       </c>
     </row>
     <row r="8155" spans="1:2">
@@ -65647,7 +65647,7 @@
         <v>8163</v>
       </c>
       <c r="B8163">
-        <v>22.86217865493289</v>
+        <v>22.86217865493288</v>
       </c>
     </row>
     <row r="8164" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>26.51870877589503</v>
+        <v>26.51870877589502</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>51.35718267293683</v>
+        <v>51.35718267293682</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>57.01521214533276</v>
+        <v>57.01521214533275</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>67.02388118665637</v>
+        <v>67.02388118665635</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>69.63730993610466</v>
+        <v>69.63730993610464</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66079,7 +66079,7 @@
         <v>8217</v>
       </c>
       <c r="B8217">
-        <v>79.086978208996</v>
+        <v>79.08697820899599</v>
       </c>
     </row>
     <row r="8218" spans="1:2">
@@ -66167,7 +66167,7 @@
         <v>8228</v>
       </c>
       <c r="B8228">
-        <v>94.00839707139974</v>
+        <v>94.00839707139971</v>
       </c>
     </row>
     <row r="8229" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>60.09322003597741</v>
+        <v>60.0932200359774</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -66431,7 +66431,7 @@
         <v>8261</v>
       </c>
       <c r="B8261">
-        <v>79.0779809281091</v>
+        <v>79.07798092810908</v>
       </c>
     </row>
     <row r="8262" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>74.0101554976317</v>
+        <v>74.01015549763169</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>79.43878068380508</v>
+        <v>79.43878068380506</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>124.6067719338762</v>
+        <v>124.6067719338761</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>85.78098449595592</v>
+        <v>85.78098449595591</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>33.43987442492136</v>
+        <v>33.43987442492135</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>67.67224224548687</v>
+        <v>67.67224224548686</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66799,7 +66799,7 @@
         <v>8307</v>
       </c>
       <c r="B8307">
-        <v>79.76921827989575</v>
+        <v>79.76921827989574</v>
       </c>
     </row>
     <row r="8308" spans="1:2">
@@ -66879,7 +66879,7 @@
         <v>8317</v>
       </c>
       <c r="B8317">
-        <v>106.3982976089507</v>
+        <v>106.3982976089506</v>
       </c>
     </row>
     <row r="8318" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>81.92302665012184</v>
+        <v>81.92302665012183</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67007,7 +67007,7 @@
         <v>8333</v>
       </c>
       <c r="B8333">
-        <v>88.5340938331406</v>
+        <v>88.53409383314059</v>
       </c>
     </row>
     <row r="8334" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>62.01998627255256</v>
+        <v>62.01998627255255</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67183,7 +67183,7 @@
         <v>8355</v>
       </c>
       <c r="B8355">
-        <v>124.540039658373</v>
+        <v>124.5400396583729</v>
       </c>
     </row>
     <row r="8356" spans="1:2">
@@ -67231,7 +67231,7 @@
         <v>8361</v>
       </c>
       <c r="B8361">
-        <v>96.79632324797738</v>
+        <v>96.79632324797737</v>
       </c>
     </row>
     <row r="8362" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>84.37878611148072</v>
+        <v>84.37878611148071</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>68.84183014657656</v>
+        <v>68.84183014657654</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>61.98912589218152</v>
+        <v>61.98912589218151</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>103.2099777793539</v>
+        <v>103.2099777793538</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67735,7 +67735,7 @@
         <v>8424</v>
       </c>
       <c r="B8424">
-        <v>77.73381060928884</v>
+        <v>77.73381060928882</v>
       </c>
     </row>
     <row r="8425" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>93.10148874226221</v>
+        <v>93.10148874226218</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>94.20956103233688</v>
+        <v>94.20956103233686</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>89.75901354632956</v>
+        <v>89.75901354632954</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>93.82247280447298</v>
+        <v>93.82247280447297</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>86.91103711393021</v>
+        <v>86.91103711393019</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>65.04638435328894</v>
+        <v>65.04638435328893</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>47.86280875766601</v>
+        <v>47.862808757666</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>55.26528497348587</v>
+        <v>55.26528497348586</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68263,7 +68263,7 @@
         <v>8490</v>
       </c>
       <c r="B8490">
-        <v>74.70029090231299</v>
+        <v>74.70029090231297</v>
       </c>
     </row>
     <row r="8491" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>55.66646991830939</v>
+        <v>55.66646991830937</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68327,7 +68327,7 @@
         <v>8498</v>
       </c>
       <c r="B8498">
-        <v>60.33134025488975</v>
+        <v>60.33134025488974</v>
       </c>
     </row>
     <row r="8499" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>81.7747327045592</v>
+        <v>81.77473270455918</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>8.533730425052651</v>
+        <v>8.533730425052649</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>30.90756480826414</v>
+        <v>30.90756480826413</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>41.72159306382912</v>
+        <v>41.72159306382911</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>44.60072294763818</v>
+        <v>44.60072294763817</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68775,7 +68775,7 @@
         <v>8554</v>
       </c>
       <c r="B8554">
-        <v>149.8491563364011</v>
+        <v>149.849156336401</v>
       </c>
     </row>
     <row r="8555" spans="1:2">
@@ -68919,7 +68919,7 @@
         <v>8572</v>
       </c>
       <c r="B8572">
-        <v>159.8089997426837</v>
+        <v>159.8089997426836</v>
       </c>
     </row>
     <row r="8573" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>159.1627781024354</v>
+        <v>159.1627781024353</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>143.9617401620449</v>
+        <v>143.9617401620448</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>91.46313371483369</v>
+        <v>91.46313371483367</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>90.87986373368987</v>
+        <v>90.87986373368986</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>134.3053718162961</v>
+        <v>134.305371816296</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>97.94416527799841</v>
+        <v>97.94416527799839</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69647,7 +69647,7 @@
         <v>8663</v>
       </c>
       <c r="B8663">
-        <v>85.63515234711804</v>
+        <v>85.63515234711802</v>
       </c>
     </row>
     <row r="8664" spans="1:2">
@@ -69687,7 +69687,7 @@
         <v>8668</v>
       </c>
       <c r="B8668">
-        <v>97.2341127655297</v>
+        <v>97.23411276552969</v>
       </c>
     </row>
     <row r="8669" spans="1:2">
@@ -69735,7 +69735,7 @@
         <v>8674</v>
       </c>
       <c r="B8674">
-        <v>126.6483927105027</v>
+        <v>126.6483927105026</v>
       </c>
     </row>
     <row r="8675" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>76.00348988992839</v>
+        <v>76.00348988992837</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>96.86712921091797</v>
+        <v>96.86712921091795</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>97.9907342660417</v>
+        <v>97.99073426604168</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>98.86311882682492</v>
+        <v>98.8631188268249</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>97.69672540005664</v>
+        <v>97.69672540005662</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>97.02359983845926</v>
+        <v>97.02359983845925</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>107.2677514593473</v>
+        <v>107.2677514593472</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>103.0826677201594</v>
+        <v>103.0826677201593</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
